--- a/resource/20.begin/220.schedule/221.HappySteps_WBS_구축일정표.xlsx
+++ b/resource/20.begin/220.schedule/221.HappySteps_WBS_구축일정표.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14670" windowHeight="8475"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14670" windowHeight="8475"/>
   </bookViews>
   <sheets>
     <sheet name="Jupiter" sheetId="1" r:id="rId1"/>
@@ -5416,51 +5416,26 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="31" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="31" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5480,6 +5455,9 @@
     <xf numFmtId="49" fontId="22" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5490,6 +5468,11 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5505,11 +5488,28 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5977,8 +5977,8 @@
   </sheetPr>
   <dimension ref="A1:BC150"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -6052,40 +6052,40 @@
     </row>
     <row r="2" spans="1:55" ht="41.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="179" t="s">
+      <c r="C2" s="169" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="178"/>
-      <c r="S2" s="178"/>
-      <c r="T2" s="178"/>
-      <c r="U2" s="178"/>
-      <c r="V2" s="178"/>
-      <c r="W2" s="178"/>
-      <c r="X2" s="178"/>
-      <c r="Y2" s="178"/>
-      <c r="Z2" s="178"/>
-      <c r="AA2" s="178"/>
-      <c r="AB2" s="178"/>
-      <c r="AC2" s="178"/>
-      <c r="AD2" s="178"/>
-      <c r="AE2" s="178"/>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="178"/>
-      <c r="AH2" s="178"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="176"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="168"/>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="168"/>
+      <c r="AD2" s="168"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="168"/>
+      <c r="AG2" s="168"/>
+      <c r="AH2" s="168"/>
       <c r="AI2" s="9"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
@@ -6166,41 +6166,41 @@
     </row>
     <row r="4" spans="1:55" ht="21" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="163" t="s">
+      <c r="C4" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="161"/>
-      <c r="E4" s="184" t="s">
+      <c r="D4" s="172"/>
+      <c r="E4" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="181" t="s">
+      <c r="J4" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="182" t="s">
+      <c r="K4" s="172"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="172"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="172"/>
+      <c r="P4" s="172"/>
+      <c r="Q4" s="175" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="161"/>
-      <c r="S4" s="161"/>
-      <c r="T4" s="161"/>
-      <c r="U4" s="161"/>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="161"/>
-      <c r="Z4" s="161"/>
-      <c r="AA4" s="161"/>
-      <c r="AB4" s="161"/>
-      <c r="AC4" s="161"/>
+      <c r="R4" s="172"/>
+      <c r="S4" s="172"/>
+      <c r="T4" s="172"/>
+      <c r="U4" s="172"/>
+      <c r="V4" s="172"/>
+      <c r="W4" s="172"/>
+      <c r="X4" s="172"/>
+      <c r="Y4" s="172"/>
+      <c r="Z4" s="172"/>
+      <c r="AA4" s="172"/>
+      <c r="AB4" s="172"/>
+      <c r="AC4" s="172"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
@@ -6230,40 +6230,40 @@
     </row>
     <row r="5" spans="1:55" ht="21" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="163" t="s">
+      <c r="C5" s="171" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="161"/>
-      <c r="E5" s="160" t="s">
+      <c r="D5" s="172"/>
+      <c r="E5" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="161"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="163" t="s">
+      <c r="J5" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="161"/>
-      <c r="O5" s="161"/>
-      <c r="P5" s="161"/>
-      <c r="Q5" s="180">
+      <c r="K5" s="172"/>
+      <c r="L5" s="172"/>
+      <c r="M5" s="172"/>
+      <c r="N5" s="172"/>
+      <c r="O5" s="172"/>
+      <c r="P5" s="172"/>
+      <c r="Q5" s="173">
         <v>45562</v>
       </c>
-      <c r="R5" s="161"/>
-      <c r="S5" s="161"/>
-      <c r="T5" s="161"/>
-      <c r="U5" s="161"/>
-      <c r="V5" s="161"/>
-      <c r="W5" s="161"/>
-      <c r="X5" s="161"/>
-      <c r="Y5" s="161"/>
-      <c r="Z5" s="161"/>
-      <c r="AA5" s="161"/>
-      <c r="AB5" s="161"/>
+      <c r="R5" s="172"/>
+      <c r="S5" s="172"/>
+      <c r="T5" s="172"/>
+      <c r="U5" s="172"/>
+      <c r="V5" s="172"/>
+      <c r="W5" s="172"/>
+      <c r="X5" s="172"/>
+      <c r="Y5" s="172"/>
+      <c r="Z5" s="172"/>
+      <c r="AA5" s="172"/>
+      <c r="AB5" s="172"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="15"/>
       <c r="AE5" s="1"/>
@@ -6405,163 +6405,163 @@
       <c r="BC7" s="19"/>
     </row>
     <row r="8" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A8" s="170" t="s">
+      <c r="A8" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="171"/>
-      <c r="C8" s="158" t="s">
+      <c r="B8" s="160"/>
+      <c r="C8" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="158" t="s">
+      <c r="D8" s="179" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="158" t="s">
+      <c r="E8" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="158" t="s">
+      <c r="F8" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="158" t="s">
+      <c r="G8" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="158" t="s">
+      <c r="H8" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="164" t="s">
+      <c r="I8" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="166" t="s">
+      <c r="J8" s="184" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="166"/>
-      <c r="N8" s="166"/>
-      <c r="O8" s="167" t="s">
+      <c r="K8" s="184"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="184"/>
+      <c r="N8" s="184"/>
+      <c r="O8" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="167"/>
-      <c r="Q8" s="167"/>
-      <c r="R8" s="167"/>
-      <c r="S8" s="167"/>
-      <c r="T8" s="167" t="s">
+      <c r="P8" s="185"/>
+      <c r="Q8" s="185"/>
+      <c r="R8" s="185"/>
+      <c r="S8" s="185"/>
+      <c r="T8" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="U8" s="167"/>
-      <c r="V8" s="167"/>
-      <c r="W8" s="167"/>
-      <c r="X8" s="167"/>
-      <c r="Y8" s="168" t="s">
+      <c r="U8" s="185"/>
+      <c r="V8" s="185"/>
+      <c r="W8" s="185"/>
+      <c r="X8" s="185"/>
+      <c r="Y8" s="186" t="s">
         <v>106</v>
       </c>
-      <c r="Z8" s="168"/>
-      <c r="AA8" s="168"/>
-      <c r="AB8" s="168"/>
-      <c r="AC8" s="168"/>
-      <c r="AD8" s="169" t="s">
+      <c r="Z8" s="186"/>
+      <c r="AA8" s="186"/>
+      <c r="AB8" s="186"/>
+      <c r="AC8" s="186"/>
+      <c r="AD8" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="AE8" s="169"/>
-      <c r="AF8" s="169"/>
-      <c r="AG8" s="169"/>
-      <c r="AH8" s="169"/>
-      <c r="AI8" s="169" t="s">
+      <c r="AE8" s="165"/>
+      <c r="AF8" s="165"/>
+      <c r="AG8" s="165"/>
+      <c r="AH8" s="165"/>
+      <c r="AI8" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="AJ8" s="169"/>
-      <c r="AK8" s="169"/>
-      <c r="AL8" s="169"/>
-      <c r="AM8" s="169"/>
-      <c r="AN8" s="176" t="s">
+      <c r="AJ8" s="165"/>
+      <c r="AK8" s="165"/>
+      <c r="AL8" s="165"/>
+      <c r="AM8" s="165"/>
+      <c r="AN8" s="166" t="s">
         <v>107</v>
       </c>
-      <c r="AO8" s="176"/>
-      <c r="AP8" s="176"/>
-      <c r="AQ8" s="176"/>
-      <c r="AR8" s="176"/>
-      <c r="AS8" s="157" t="s">
+      <c r="AO8" s="166"/>
+      <c r="AP8" s="166"/>
+      <c r="AQ8" s="166"/>
+      <c r="AR8" s="166"/>
+      <c r="AS8" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="AT8" s="157"/>
-      <c r="AU8" s="157"/>
-      <c r="AV8" s="157"/>
-      <c r="AW8" s="157"/>
-      <c r="AX8" s="157" t="s">
+      <c r="AT8" s="178"/>
+      <c r="AU8" s="178"/>
+      <c r="AV8" s="178"/>
+      <c r="AW8" s="178"/>
+      <c r="AX8" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="AY8" s="157"/>
-      <c r="AZ8" s="157"/>
-      <c r="BA8" s="157"/>
-      <c r="BB8" s="157"/>
+      <c r="AY8" s="178"/>
+      <c r="AZ8" s="178"/>
+      <c r="BA8" s="178"/>
+      <c r="BB8" s="178"/>
       <c r="BC8" s="19"/>
     </row>
     <row r="9" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A9" s="172"/>
-      <c r="B9" s="173"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="166"/>
-      <c r="L9" s="166"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="166"/>
-      <c r="O9" s="167"/>
-      <c r="P9" s="167"/>
-      <c r="Q9" s="167"/>
-      <c r="R9" s="167"/>
-      <c r="S9" s="167"/>
-      <c r="T9" s="167"/>
-      <c r="U9" s="167"/>
-      <c r="V9" s="167"/>
-      <c r="W9" s="167"/>
-      <c r="X9" s="167"/>
-      <c r="Y9" s="168"/>
-      <c r="Z9" s="168"/>
-      <c r="AA9" s="168"/>
-      <c r="AB9" s="168"/>
-      <c r="AC9" s="168"/>
-      <c r="AD9" s="169"/>
-      <c r="AE9" s="169"/>
-      <c r="AF9" s="169"/>
-      <c r="AG9" s="169"/>
-      <c r="AH9" s="169"/>
-      <c r="AI9" s="169"/>
-      <c r="AJ9" s="169"/>
-      <c r="AK9" s="169"/>
-      <c r="AL9" s="169"/>
-      <c r="AM9" s="169"/>
-      <c r="AN9" s="176"/>
-      <c r="AO9" s="176"/>
-      <c r="AP9" s="176"/>
-      <c r="AQ9" s="176"/>
-      <c r="AR9" s="176"/>
-      <c r="AS9" s="157"/>
-      <c r="AT9" s="157"/>
-      <c r="AU9" s="157"/>
-      <c r="AV9" s="157"/>
-      <c r="AW9" s="157"/>
-      <c r="AX9" s="157"/>
-      <c r="AY9" s="157"/>
-      <c r="AZ9" s="157"/>
-      <c r="BA9" s="157"/>
-      <c r="BB9" s="157"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="184"/>
+      <c r="O9" s="185"/>
+      <c r="P9" s="185"/>
+      <c r="Q9" s="185"/>
+      <c r="R9" s="185"/>
+      <c r="S9" s="185"/>
+      <c r="T9" s="185"/>
+      <c r="U9" s="185"/>
+      <c r="V9" s="185"/>
+      <c r="W9" s="185"/>
+      <c r="X9" s="185"/>
+      <c r="Y9" s="186"/>
+      <c r="Z9" s="186"/>
+      <c r="AA9" s="186"/>
+      <c r="AB9" s="186"/>
+      <c r="AC9" s="186"/>
+      <c r="AD9" s="165"/>
+      <c r="AE9" s="165"/>
+      <c r="AF9" s="165"/>
+      <c r="AG9" s="165"/>
+      <c r="AH9" s="165"/>
+      <c r="AI9" s="165"/>
+      <c r="AJ9" s="165"/>
+      <c r="AK9" s="165"/>
+      <c r="AL9" s="165"/>
+      <c r="AM9" s="165"/>
+      <c r="AN9" s="166"/>
+      <c r="AO9" s="166"/>
+      <c r="AP9" s="166"/>
+      <c r="AQ9" s="166"/>
+      <c r="AR9" s="166"/>
+      <c r="AS9" s="178"/>
+      <c r="AT9" s="178"/>
+      <c r="AU9" s="178"/>
+      <c r="AV9" s="178"/>
+      <c r="AW9" s="178"/>
+      <c r="AX9" s="178"/>
+      <c r="AY9" s="178"/>
+      <c r="AZ9" s="178"/>
+      <c r="BA9" s="178"/>
+      <c r="BB9" s="178"/>
       <c r="BC9" s="22"/>
     </row>
     <row r="10" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A10" s="174"/>
-      <c r="B10" s="175"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="165"/>
+      <c r="A10" s="163"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="183"/>
       <c r="J10" s="53" t="s">
         <v>14</v>
       </c>
@@ -6970,10 +6970,10 @@
       <c r="BC14" s="24"/>
     </row>
     <row r="15" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A15" s="155">
+      <c r="A15" s="152">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B15" s="156"/>
+      <c r="B15" s="153"/>
       <c r="C15" s="91" t="s">
         <v>111</v>
       </c>
@@ -7044,10 +7044,10 @@
       <c r="BC15" s="24"/>
     </row>
     <row r="16" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A16" s="155">
+      <c r="A16" s="152">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B16" s="156"/>
+      <c r="B16" s="153"/>
       <c r="C16" s="56" t="s">
         <v>113</v>
       </c>
@@ -7118,10 +7118,10 @@
       <c r="BC16" s="24"/>
     </row>
     <row r="17" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A17" s="155">
+      <c r="A17" s="152">
         <v>2.4</v>
       </c>
-      <c r="B17" s="156"/>
+      <c r="B17" s="153"/>
       <c r="C17" s="56" t="s">
         <v>114</v>
       </c>
@@ -7329,10 +7329,10 @@
       <c r="BC19" s="24"/>
     </row>
     <row r="20" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A20" s="155">
+      <c r="A20" s="152">
         <v>3.2</v>
       </c>
-      <c r="B20" s="156">
+      <c r="B20" s="153">
         <v>3.2</v>
       </c>
       <c r="C20" s="91" t="s">
@@ -7403,10 +7403,10 @@
       <c r="BC20" s="24"/>
     </row>
     <row r="21" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A21" s="155">
+      <c r="A21" s="152">
         <v>3.3</v>
       </c>
-      <c r="B21" s="156">
+      <c r="B21" s="153">
         <v>3.3</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -7479,10 +7479,10 @@
       <c r="BC21" s="24"/>
     </row>
     <row r="22" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A22" s="155">
+      <c r="A22" s="152">
         <v>3.4</v>
       </c>
-      <c r="B22" s="156">
+      <c r="B22" s="153">
         <v>3.4</v>
       </c>
       <c r="C22" s="56" t="s">
@@ -7955,8 +7955,8 @@
       <c r="BB28" s="128"/>
     </row>
     <row r="29" spans="1:55" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="155"/>
-      <c r="B29" s="156"/>
+      <c r="A29" s="152"/>
+      <c r="B29" s="153"/>
       <c r="C29" s="56"/>
       <c r="D29" s="56"/>
       <c r="E29" s="82"/>
@@ -8019,8 +8019,8 @@
       <c r="BB29" s="123"/>
     </row>
     <row r="30" spans="1:55" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="155"/>
-      <c r="B30" s="156"/>
+      <c r="A30" s="152"/>
+      <c r="B30" s="153"/>
       <c r="C30" s="91"/>
       <c r="D30" s="56"/>
       <c r="E30" s="57"/>
@@ -8083,8 +8083,8 @@
       <c r="BB30" s="123"/>
     </row>
     <row r="31" spans="1:55" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="155"/>
-      <c r="B31" s="156"/>
+      <c r="A31" s="152"/>
+      <c r="B31" s="153"/>
       <c r="C31" s="56"/>
       <c r="D31" s="56"/>
       <c r="E31" s="82"/>
@@ -8147,8 +8147,8 @@
       <c r="BB31" s="123"/>
     </row>
     <row r="32" spans="1:55" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="155"/>
-      <c r="B32" s="156"/>
+      <c r="A32" s="152"/>
+      <c r="B32" s="153"/>
       <c r="C32" s="56"/>
       <c r="D32" s="56"/>
       <c r="E32" s="82"/>
@@ -8211,10 +8211,10 @@
       <c r="BB32" s="123"/>
     </row>
     <row r="33" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A33" s="185">
+      <c r="A33" s="157">
         <v>4.2</v>
       </c>
-      <c r="B33" s="186"/>
+      <c r="B33" s="158"/>
       <c r="C33" s="131" t="s">
         <v>119</v>
       </c>
@@ -9042,10 +9042,10 @@
       <c r="BC44" s="24"/>
     </row>
     <row r="45" spans="1:55" s="31" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A45" s="152">
+      <c r="A45" s="155">
         <v>4.3</v>
       </c>
-      <c r="B45" s="153">
+      <c r="B45" s="156">
         <v>4.3</v>
       </c>
       <c r="C45" s="131" t="s">
@@ -9125,7 +9125,7 @@
         <v>10</v>
       </c>
       <c r="I46" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="137"/>
       <c r="K46" s="93"/>
@@ -9265,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="137"/>
       <c r="K48" s="93"/>
@@ -9335,7 +9335,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="137"/>
       <c r="K49" s="93"/>
@@ -9385,10 +9385,10 @@
       <c r="BC49" s="24"/>
     </row>
     <row r="50" spans="1:55" s="31" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A50" s="152">
+      <c r="A50" s="155">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B50" s="153">
+      <c r="B50" s="156">
         <v>4.4000000000000004</v>
       </c>
       <c r="C50" s="131" t="s">
@@ -10288,10 +10288,10 @@
       <c r="BC62" s="24"/>
     </row>
     <row r="63" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A63" s="152">
+      <c r="A63" s="155">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B63" s="153">
+      <c r="B63" s="156">
         <v>4.4000000000000004</v>
       </c>
       <c r="C63" s="131" t="s">
@@ -10491,8 +10491,8 @@
       <c r="BC65" s="24"/>
     </row>
     <row r="66" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A66" s="155"/>
-      <c r="B66" s="156"/>
+      <c r="A66" s="152"/>
+      <c r="B66" s="153"/>
       <c r="C66" s="56"/>
       <c r="D66" s="57" t="s">
         <v>196</v>
@@ -10561,8 +10561,8 @@
       <c r="BC66" s="24"/>
     </row>
     <row r="67" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A67" s="155"/>
-      <c r="B67" s="156"/>
+      <c r="A67" s="152"/>
+      <c r="B67" s="153"/>
       <c r="C67" s="56"/>
       <c r="D67" s="57" t="s">
         <v>197</v>
@@ -10631,8 +10631,8 @@
       <c r="BC67" s="24"/>
     </row>
     <row r="68" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A68" s="155"/>
-      <c r="B68" s="156"/>
+      <c r="A68" s="152"/>
+      <c r="B68" s="153"/>
       <c r="C68" s="56"/>
       <c r="D68" s="57" t="s">
         <v>198</v>
@@ -10701,8 +10701,8 @@
       <c r="BC68" s="24"/>
     </row>
     <row r="69" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A69" s="155"/>
-      <c r="B69" s="156"/>
+      <c r="A69" s="152"/>
+      <c r="B69" s="153"/>
       <c r="C69" s="56"/>
       <c r="D69" s="57" t="s">
         <v>199</v>
@@ -10771,10 +10771,10 @@
       <c r="BC69" s="24"/>
     </row>
     <row r="70" spans="1:55" s="31" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A70" s="152">
+      <c r="A70" s="155">
         <v>4.5</v>
       </c>
-      <c r="B70" s="153">
+      <c r="B70" s="156">
         <v>4.5</v>
       </c>
       <c r="C70" s="132" t="s">
@@ -10974,10 +10974,10 @@
       <c r="BC72" s="24"/>
     </row>
     <row r="73" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A73" s="152" t="s">
+      <c r="A73" s="155" t="s">
         <v>187</v>
       </c>
-      <c r="B73" s="153">
+      <c r="B73" s="156">
         <v>4.5</v>
       </c>
       <c r="C73" s="132" t="s">
@@ -11177,10 +11177,10 @@
       <c r="BC75" s="24"/>
     </row>
     <row r="76" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A76" s="152" t="s">
+      <c r="A76" s="155" t="s">
         <v>200</v>
       </c>
-      <c r="B76" s="153">
+      <c r="B76" s="156">
         <v>4.5</v>
       </c>
       <c r="C76" s="132" t="s">
@@ -11380,10 +11380,10 @@
       <c r="BC78" s="24"/>
     </row>
     <row r="79" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A79" s="155" t="s">
+      <c r="A79" s="152" t="s">
         <v>201</v>
       </c>
-      <c r="B79" s="156">
+      <c r="B79" s="153">
         <v>4.5999999999999996</v>
       </c>
       <c r="C79" s="132" t="s">
@@ -11443,8 +11443,8 @@
       <c r="BC79" s="24"/>
     </row>
     <row r="80" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A80" s="155"/>
-      <c r="B80" s="156"/>
+      <c r="A80" s="152"/>
+      <c r="B80" s="153"/>
       <c r="C80" s="57"/>
       <c r="D80" s="56" t="s">
         <v>63</v>
@@ -11513,8 +11513,8 @@
       <c r="BC80" s="24"/>
     </row>
     <row r="81" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A81" s="155"/>
-      <c r="B81" s="156"/>
+      <c r="A81" s="152"/>
+      <c r="B81" s="153"/>
       <c r="C81" s="57"/>
       <c r="D81" s="56" t="s">
         <v>64</v>
@@ -11653,8 +11653,8 @@
       <c r="BC82" s="24"/>
     </row>
     <row r="83" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A83" s="155"/>
-      <c r="B83" s="156"/>
+      <c r="A83" s="152"/>
+      <c r="B83" s="153"/>
       <c r="C83" s="57"/>
       <c r="D83" s="56" t="s">
         <v>184</v>
@@ -11723,8 +11723,8 @@
       <c r="BC83" s="24"/>
     </row>
     <row r="84" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A84" s="155"/>
-      <c r="B84" s="156"/>
+      <c r="A84" s="152"/>
+      <c r="B84" s="153"/>
       <c r="C84" s="57"/>
       <c r="D84" s="56" t="s">
         <v>186</v>
@@ -11793,8 +11793,8 @@
       <c r="BC84" s="24"/>
     </row>
     <row r="85" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A85" s="155"/>
-      <c r="B85" s="156"/>
+      <c r="A85" s="152"/>
+      <c r="B85" s="153"/>
       <c r="C85" s="57"/>
       <c r="D85" s="151" t="s">
         <v>185</v>
@@ -12003,10 +12003,10 @@
       <c r="BC87" s="24"/>
     </row>
     <row r="88" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A88" s="152" t="s">
+      <c r="A88" s="155" t="s">
         <v>202</v>
       </c>
-      <c r="B88" s="153">
+      <c r="B88" s="156">
         <v>4.7</v>
       </c>
       <c r="C88" s="131" t="s">
@@ -12136,10 +12136,10 @@
       <c r="BC89" s="24"/>
     </row>
     <row r="90" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A90" s="152" t="s">
+      <c r="A90" s="155" t="s">
         <v>203</v>
       </c>
-      <c r="B90" s="153">
+      <c r="B90" s="156">
         <v>4.8</v>
       </c>
       <c r="C90" s="131" t="s">
@@ -12549,10 +12549,10 @@
       <c r="BC95" s="24"/>
     </row>
     <row r="96" spans="1:55" s="31" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A96" s="152" t="s">
+      <c r="A96" s="155" t="s">
         <v>204</v>
       </c>
-      <c r="B96" s="153">
+      <c r="B96" s="156">
         <v>4.9000000000000004</v>
       </c>
       <c r="C96" s="131" t="s">
@@ -12632,7 +12632,7 @@
         <v>7</v>
       </c>
       <c r="I97" s="149">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J97" s="62"/>
       <c r="K97" s="85"/>
@@ -12702,7 +12702,7 @@
         <v>6</v>
       </c>
       <c r="I98" s="149">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J98" s="62"/>
       <c r="K98" s="85"/>
@@ -12842,7 +12842,7 @@
         <v>11</v>
       </c>
       <c r="I100" s="149">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J100" s="62"/>
       <c r="K100" s="85"/>
@@ -12912,7 +12912,7 @@
         <v>11</v>
       </c>
       <c r="I101" s="149">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J101" s="62"/>
       <c r="K101" s="85"/>
@@ -12982,7 +12982,7 @@
         <v>5</v>
       </c>
       <c r="I102" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" s="62"/>
       <c r="K102" s="85"/>
@@ -13242,10 +13242,10 @@
       <c r="BC105" s="24"/>
     </row>
     <row r="106" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A106" s="152" t="s">
+      <c r="A106" s="155" t="s">
         <v>205</v>
       </c>
-      <c r="B106" s="153">
+      <c r="B106" s="156">
         <v>4.0999999999999996</v>
       </c>
       <c r="C106" s="131" t="s">
@@ -13725,10 +13725,10 @@
       <c r="BC112" s="24"/>
     </row>
     <row r="113" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A113" s="155" t="s">
+      <c r="A113" s="152" t="s">
         <v>206</v>
       </c>
-      <c r="B113" s="156">
+      <c r="B113" s="153">
         <v>4.17</v>
       </c>
       <c r="C113" s="132" t="s">
@@ -13788,8 +13788,8 @@
       <c r="BC113" s="24"/>
     </row>
     <row r="114" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A114" s="155"/>
-      <c r="B114" s="156"/>
+      <c r="A114" s="152"/>
+      <c r="B114" s="153"/>
       <c r="C114" s="57"/>
       <c r="D114" s="56" t="s">
         <v>152</v>
@@ -13858,8 +13858,8 @@
       <c r="BC114" s="24"/>
     </row>
     <row r="115" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A115" s="155"/>
-      <c r="B115" s="156"/>
+      <c r="A115" s="152"/>
+      <c r="B115" s="153"/>
       <c r="C115" s="56"/>
       <c r="D115" s="56" t="s">
         <v>43</v>
@@ -13928,10 +13928,10 @@
       <c r="BC115" s="24"/>
     </row>
     <row r="116" spans="1:55" s="31" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A116" s="155" t="s">
+      <c r="A116" s="152" t="s">
         <v>208</v>
       </c>
-      <c r="B116" s="156"/>
+      <c r="B116" s="153"/>
       <c r="C116" s="132" t="s">
         <v>44</v>
       </c>
@@ -13989,8 +13989,8 @@
       <c r="BC116" s="24"/>
     </row>
     <row r="117" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A117" s="155"/>
-      <c r="B117" s="156"/>
+      <c r="A117" s="152"/>
+      <c r="B117" s="153"/>
       <c r="C117" s="56"/>
       <c r="D117" s="56" t="s">
         <v>45</v>
@@ -14059,8 +14059,8 @@
       <c r="BC117" s="24"/>
     </row>
     <row r="118" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A118" s="155"/>
-      <c r="B118" s="156"/>
+      <c r="A118" s="152"/>
+      <c r="B118" s="153"/>
       <c r="C118" s="56"/>
       <c r="D118" s="56" t="s">
         <v>153</v>
@@ -14129,8 +14129,8 @@
       <c r="BC118" s="24"/>
     </row>
     <row r="119" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A119" s="155"/>
-      <c r="B119" s="156"/>
+      <c r="A119" s="152"/>
+      <c r="B119" s="153"/>
       <c r="C119" s="56"/>
       <c r="D119" s="56" t="s">
         <v>154</v>
@@ -14199,8 +14199,8 @@
       <c r="BC119" s="24"/>
     </row>
     <row r="120" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A120" s="155"/>
-      <c r="B120" s="156"/>
+      <c r="A120" s="152"/>
+      <c r="B120" s="153"/>
       <c r="C120" s="56"/>
       <c r="D120" s="56" t="s">
         <v>155</v>
@@ -14269,8 +14269,8 @@
       <c r="BC120" s="24"/>
     </row>
     <row r="121" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A121" s="155"/>
-      <c r="B121" s="156"/>
+      <c r="A121" s="152"/>
+      <c r="B121" s="153"/>
       <c r="C121" s="56"/>
       <c r="D121" s="56" t="s">
         <v>156</v>
@@ -14339,10 +14339,10 @@
       <c r="BC121" s="24"/>
     </row>
     <row r="122" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A122" s="155" t="s">
+      <c r="A122" s="152" t="s">
         <v>207</v>
       </c>
-      <c r="B122" s="156">
+      <c r="B122" s="153">
         <v>4.1900000000000004</v>
       </c>
       <c r="C122" s="132" t="s">
@@ -14402,8 +14402,8 @@
       <c r="BC122" s="24"/>
     </row>
     <row r="123" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A123" s="155"/>
-      <c r="B123" s="156"/>
+      <c r="A123" s="152"/>
+      <c r="B123" s="153"/>
       <c r="C123" s="57"/>
       <c r="D123" s="56" t="s">
         <v>157</v>
@@ -14472,8 +14472,8 @@
       <c r="BC123" s="24"/>
     </row>
     <row r="124" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A124" s="155"/>
-      <c r="B124" s="156"/>
+      <c r="A124" s="152"/>
+      <c r="B124" s="153"/>
       <c r="C124" s="57"/>
       <c r="D124" s="56" t="s">
         <v>158</v>
@@ -14542,8 +14542,8 @@
       <c r="BC124" s="24"/>
     </row>
     <row r="125" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A125" s="155"/>
-      <c r="B125" s="156"/>
+      <c r="A125" s="152"/>
+      <c r="B125" s="153"/>
       <c r="C125" s="57"/>
       <c r="D125" s="56" t="s">
         <v>159</v>
@@ -14612,8 +14612,8 @@
       <c r="BC125" s="24"/>
     </row>
     <row r="126" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A126" s="155"/>
-      <c r="B126" s="156"/>
+      <c r="A126" s="152"/>
+      <c r="B126" s="153"/>
       <c r="C126" s="57"/>
       <c r="D126" s="56" t="s">
         <v>160</v>
@@ -14682,10 +14682,10 @@
       <c r="BC126" s="24"/>
     </row>
     <row r="127" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A127" s="155" t="s">
+      <c r="A127" s="152" t="s">
         <v>209</v>
       </c>
-      <c r="B127" s="156"/>
+      <c r="B127" s="153"/>
       <c r="C127" s="132" t="s">
         <v>47</v>
       </c>
@@ -14743,8 +14743,8 @@
       <c r="BC127" s="24"/>
     </row>
     <row r="128" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A128" s="155"/>
-      <c r="B128" s="156"/>
+      <c r="A128" s="152"/>
+      <c r="B128" s="153"/>
       <c r="C128" s="57"/>
       <c r="D128" s="57" t="s">
         <v>100</v>
@@ -14813,8 +14813,8 @@
       <c r="BC128" s="24"/>
     </row>
     <row r="129" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A129" s="155"/>
-      <c r="B129" s="156"/>
+      <c r="A129" s="152"/>
+      <c r="B129" s="153"/>
       <c r="C129" s="57"/>
       <c r="D129" s="57" t="s">
         <v>101</v>
@@ -14883,8 +14883,8 @@
       <c r="BC129" s="24"/>
     </row>
     <row r="130" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A130" s="155"/>
-      <c r="B130" s="156"/>
+      <c r="A130" s="152"/>
+      <c r="B130" s="153"/>
       <c r="C130" s="57"/>
       <c r="D130" s="56" t="s">
         <v>161</v>
@@ -14953,8 +14953,8 @@
       <c r="BC130" s="24"/>
     </row>
     <row r="131" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A131" s="155"/>
-      <c r="B131" s="156"/>
+      <c r="A131" s="152"/>
+      <c r="B131" s="153"/>
       <c r="C131" s="57"/>
       <c r="D131" s="56" t="s">
         <v>162</v>
@@ -15023,8 +15023,8 @@
       <c r="BC131" s="24"/>
     </row>
     <row r="132" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A132" s="155"/>
-      <c r="B132" s="156"/>
+      <c r="A132" s="152"/>
+      <c r="B132" s="153"/>
       <c r="C132" s="57"/>
       <c r="D132" s="56" t="s">
         <v>163</v>
@@ -15093,10 +15093,10 @@
       <c r="BC132" s="24"/>
     </row>
     <row r="133" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A133" s="155" t="s">
+      <c r="A133" s="152" t="s">
         <v>210</v>
       </c>
-      <c r="B133" s="156">
+      <c r="B133" s="153">
         <v>4.21</v>
       </c>
       <c r="C133" s="132" t="s">
@@ -15156,8 +15156,8 @@
       <c r="BC133" s="24"/>
     </row>
     <row r="134" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A134" s="155"/>
-      <c r="B134" s="156"/>
+      <c r="A134" s="152"/>
+      <c r="B134" s="153"/>
       <c r="C134" s="57"/>
       <c r="D134" s="56" t="s">
         <v>164</v>
@@ -15226,10 +15226,10 @@
       <c r="BC134" s="24"/>
     </row>
     <row r="135" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A135" s="155" t="s">
+      <c r="A135" s="152" t="s">
         <v>174</v>
       </c>
-      <c r="B135" s="156">
+      <c r="B135" s="153">
         <v>4.22</v>
       </c>
       <c r="C135" s="132" t="s">
@@ -15289,8 +15289,8 @@
       <c r="BC135" s="24"/>
     </row>
     <row r="136" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A136" s="155"/>
-      <c r="B136" s="156"/>
+      <c r="A136" s="152"/>
+      <c r="B136" s="153"/>
       <c r="C136" s="57"/>
       <c r="D136" s="56" t="s">
         <v>165</v>
@@ -15359,10 +15359,10 @@
       <c r="BC136" s="24"/>
     </row>
     <row r="137" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A137" s="155" t="s">
+      <c r="A137" s="152" t="s">
         <v>175</v>
       </c>
-      <c r="B137" s="156">
+      <c r="B137" s="153">
         <v>4.2300000000000004</v>
       </c>
       <c r="C137" s="132" t="s">
@@ -15422,8 +15422,8 @@
       <c r="BC137" s="24"/>
     </row>
     <row r="138" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A138" s="155"/>
-      <c r="B138" s="156"/>
+      <c r="A138" s="152"/>
+      <c r="B138" s="153"/>
       <c r="C138" s="57"/>
       <c r="D138" s="56" t="s">
         <v>166</v>
@@ -15492,10 +15492,10 @@
       <c r="BC138" s="24"/>
     </row>
     <row r="139" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A139" s="155" t="s">
+      <c r="A139" s="152" t="s">
         <v>176</v>
       </c>
-      <c r="B139" s="156">
+      <c r="B139" s="153">
         <v>4.24</v>
       </c>
       <c r="C139" s="132" t="s">
@@ -15555,8 +15555,8 @@
       <c r="BC139" s="24"/>
     </row>
     <row r="140" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A140" s="155"/>
-      <c r="B140" s="156"/>
+      <c r="A140" s="152"/>
+      <c r="B140" s="153"/>
       <c r="C140" s="57"/>
       <c r="D140" s="56" t="s">
         <v>167</v>
@@ -15625,8 +15625,8 @@
       <c r="BC140" s="24"/>
     </row>
     <row r="141" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A141" s="155"/>
-      <c r="B141" s="156"/>
+      <c r="A141" s="152"/>
+      <c r="B141" s="153"/>
       <c r="C141" s="57"/>
       <c r="D141" s="56" t="s">
         <v>168</v>
@@ -15695,8 +15695,8 @@
       <c r="BC141" s="24"/>
     </row>
     <row r="142" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A142" s="155"/>
-      <c r="B142" s="156"/>
+      <c r="A142" s="152"/>
+      <c r="B142" s="153"/>
       <c r="C142" s="57"/>
       <c r="D142" s="56" t="s">
         <v>169</v>
@@ -15765,8 +15765,8 @@
       <c r="BC142" s="24"/>
     </row>
     <row r="143" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A143" s="155"/>
-      <c r="B143" s="156"/>
+      <c r="A143" s="152"/>
+      <c r="B143" s="153"/>
       <c r="C143" s="57"/>
       <c r="D143" s="56" t="s">
         <v>170</v>
@@ -15835,10 +15835,10 @@
       <c r="BC143" s="24"/>
     </row>
     <row r="144" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A144" s="155" t="s">
+      <c r="A144" s="152" t="s">
         <v>177</v>
       </c>
-      <c r="B144" s="156">
+      <c r="B144" s="153">
         <v>4.25</v>
       </c>
       <c r="C144" s="132" t="s">
@@ -15898,8 +15898,8 @@
       <c r="BC144" s="24"/>
     </row>
     <row r="145" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A145" s="155"/>
-      <c r="B145" s="156"/>
+      <c r="A145" s="152"/>
+      <c r="B145" s="153"/>
       <c r="C145" s="57"/>
       <c r="D145" s="56" t="s">
         <v>171</v>
@@ -15968,8 +15968,8 @@
       <c r="BC145" s="24"/>
     </row>
     <row r="146" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A146" s="155"/>
-      <c r="B146" s="156"/>
+      <c r="A146" s="152"/>
+      <c r="B146" s="153"/>
       <c r="C146" s="57"/>
       <c r="D146" s="56" t="s">
         <v>172</v>
@@ -16038,8 +16038,8 @@
       <c r="BC146" s="24"/>
     </row>
     <row r="147" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A147" s="155"/>
-      <c r="B147" s="156"/>
+      <c r="A147" s="152"/>
+      <c r="B147" s="153"/>
       <c r="C147" s="57"/>
       <c r="D147" s="56" t="s">
         <v>173</v>
@@ -16108,8 +16108,8 @@
       <c r="BC147" s="24"/>
     </row>
     <row r="148" spans="1:55" s="30" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A148" s="155"/>
-      <c r="B148" s="156">
+      <c r="A148" s="152"/>
+      <c r="B148" s="153">
         <v>4.26</v>
       </c>
       <c r="C148" s="57" t="s">
@@ -16174,10 +16174,10 @@
       <c r="BC148" s="24"/>
     </row>
     <row r="149" spans="1:55" s="40" customFormat="1" ht="21" customHeight="1">
-      <c r="A149" s="155" t="s">
+      <c r="A149" s="152" t="s">
         <v>178</v>
       </c>
-      <c r="B149" s="156">
+      <c r="B149" s="153">
         <v>5</v>
       </c>
       <c r="C149" s="36" t="s">
@@ -16237,10 +16237,10 @@
       <c r="BC149" s="41"/>
     </row>
     <row r="150" spans="1:55" s="30" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A150" s="155" t="s">
+      <c r="A150" s="152" t="s">
         <v>179</v>
       </c>
-      <c r="B150" s="156">
+      <c r="B150" s="153">
         <v>5.0999999999999996</v>
       </c>
       <c r="C150" s="57" t="s">
@@ -16310,6 +16310,145 @@
     </row>
   </sheetData>
   <mergeCells count="163">
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="AX8:BB9"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="AS8:AW9"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:N9"/>
+    <mergeCell ref="O8:S9"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="T8:X9"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="AD8:AH9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="AI8:AM9"/>
+    <mergeCell ref="AN8:AR9"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:AB5"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="Q4:AC4"/>
+    <mergeCell ref="P2:AH2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A68:B68"/>
@@ -16334,149 +16473,10 @@
     <mergeCell ref="A133:B133"/>
     <mergeCell ref="A134:B134"/>
     <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="AI8:AM9"/>
-    <mergeCell ref="AN8:AR9"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="Q5:AB5"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="Q4:AC4"/>
-    <mergeCell ref="P2:AH2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AX8:BB9"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="AS8:AW9"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:N9"/>
-    <mergeCell ref="O8:S9"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="T8:X9"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="AD8:AH9"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A48:B48"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="I1:I24 I144 I116 I122 I33:I45 I106 I96 I90 I88 I79 I70 I50 I127 I149 I151:I1048576">
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -16486,6 +16486,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I114:I115">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I113">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I128:I132">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I141:I143">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16495,7 +16525,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I113">
+  <conditionalFormatting sqref="I133:I139">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16505,7 +16535,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I128:I132">
+  <conditionalFormatting sqref="I140">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16515,8 +16545,41 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I141:I143">
-    <cfRule type="colorScale" priority="42">
+  <conditionalFormatting sqref="L28:S28 K29:BB32 U28:BB28 K25:BB27">
+    <cfRule type="expression" dxfId="8" priority="39" stopIfTrue="1">
+      <formula>AND(K$3&gt;=$F25,K$3&lt;$F25+($G25-$F25+1)*$I25%)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="40" stopIfTrue="1">
+      <formula>AND(K$3&gt;=$F25+($G25-$F25+1)*$I25%,K$3&lt;=$G25)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="41" stopIfTrue="1">
+      <formula>IF($G$2&lt;2,(OR(WEEKDAY(K$3)=1,WEEKDAY(K$3)=7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:H28">
+    <cfRule type="cellIs" dxfId="5" priority="36" stopIfTrue="1" operator="equal">
+      <formula>"완료"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="37" stopIfTrue="1" operator="equal">
+      <formula>"진행"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="38" stopIfTrue="1" operator="equal">
+      <formula>"지연"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T28">
+    <cfRule type="expression" dxfId="2" priority="66" stopIfTrue="1">
+      <formula>AND(K$3&gt;=$F28,K$3&lt;$F28+($G28-$F28+1)*$I28%)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="67" stopIfTrue="1">
+      <formula>AND(K$3&gt;=$F28+($G28-$F28+1)*$I28%,K$3&lt;=$G28)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="68" stopIfTrue="1">
+      <formula>IF($G$2&lt;2,(OR(WEEKDAY(K$3)=1,WEEKDAY(K$3)=7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I117:I119 I121 I123:I126">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -16525,8 +16588,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I133:I139">
-    <cfRule type="colorScale" priority="41">
+  <conditionalFormatting sqref="I107:I112">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -16535,8 +16598,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I140">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="I97:I98 I100:I101 I105">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -16545,40 +16608,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L28:S28 K29:BB32 U28:BB28 K25:BB27">
-    <cfRule type="expression" dxfId="8" priority="35" stopIfTrue="1">
-      <formula>AND(K$3&gt;=$F25,K$3&lt;$F25+($G25-$F25+1)*$I25%)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="36" stopIfTrue="1">
-      <formula>AND(K$3&gt;=$F25+($G25-$F25+1)*$I25%,K$3&lt;=$G25)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="37" stopIfTrue="1">
-      <formula>IF($G$2&lt;2,(OR(WEEKDAY(K$3)=1,WEEKDAY(K$3)=7)))</formula>
+  <conditionalFormatting sqref="I91:I95">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25:H28">
-    <cfRule type="cellIs" dxfId="5" priority="32" stopIfTrue="1" operator="equal">
-      <formula>"완료"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="33" stopIfTrue="1" operator="equal">
-      <formula>"진행"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="34" stopIfTrue="1" operator="equal">
-      <formula>"지연"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T28">
-    <cfRule type="expression" dxfId="2" priority="62" stopIfTrue="1">
-      <formula>AND(K$3&gt;=$F28,K$3&lt;$F28+($G28-$F28+1)*$I28%)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="63" stopIfTrue="1">
-      <formula>AND(K$3&gt;=$F28+($G28-$F28+1)*$I28%,K$3&lt;=$G28)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="64" stopIfTrue="1">
-      <formula>IF($G$2&lt;2,(OR(WEEKDAY(K$3)=1,WEEKDAY(K$3)=7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I117:I119 I121 I123:I126">
+  <conditionalFormatting sqref="I89">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16588,7 +16628,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I107:I112">
+  <conditionalFormatting sqref="I87">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16598,17 +16638,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I97:I105">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I91:I95">
+  <conditionalFormatting sqref="I72">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16618,27 +16648,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I89">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I87">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72">
+  <conditionalFormatting sqref="I80:I82 I86">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16648,7 +16658,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I80:I82 I86">
+  <conditionalFormatting sqref="I51:I62">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:I49">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I120">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16658,7 +16688,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:I62">
+  <conditionalFormatting sqref="I145:I148">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16668,7 +16698,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:I49">
+  <conditionalFormatting sqref="I150">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16678,7 +16708,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I120">
+  <conditionalFormatting sqref="I83">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I85">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16688,7 +16728,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I145:I148">
+  <conditionalFormatting sqref="I84">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16698,7 +16738,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I150">
+  <conditionalFormatting sqref="I71">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I73">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16708,7 +16758,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I83">
+  <conditionalFormatting sqref="I74">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16718,7 +16768,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I85">
+  <conditionalFormatting sqref="I75">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16728,7 +16778,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I84">
+  <conditionalFormatting sqref="I76">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16738,17 +16788,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I73">
+  <conditionalFormatting sqref="I78">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16758,7 +16798,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74">
+  <conditionalFormatting sqref="I77">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16768,7 +16808,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I75">
+  <conditionalFormatting sqref="I63">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16778,17 +16818,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I76">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I78">
+  <conditionalFormatting sqref="I64:I68">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16798,7 +16828,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I77">
+  <conditionalFormatting sqref="I69">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16808,7 +16838,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
+  <conditionalFormatting sqref="I99">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16818,7 +16848,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64:I68">
+  <conditionalFormatting sqref="I102">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I103">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16828,7 +16868,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69">
+  <conditionalFormatting sqref="I104">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="percent" val="0"/>

--- a/resource/20.begin/220.schedule/221.HappySteps_WBS_구축일정표.xlsx
+++ b/resource/20.begin/220.schedule/221.HappySteps_WBS_구축일정표.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Jupiter" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Jupiter!$B$1:$BB$150</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Jupiter!$B$1:$BB$148</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="210">
   <si>
     <t>날짜</t>
   </si>
@@ -2739,7 +2739,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>회원</t>
+      <t>상품</t>
     </r>
     <r>
       <rPr>
@@ -2757,27 +2757,210 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>리뷰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>등록</t>
     </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>메일</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF434343"/>
         <rFont val="Roboto"/>
       </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -2788,20 +2971,20 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>발송</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>탈퇴</t>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자주</t>
     </r>
     <r>
       <rPr>
@@ -2819,7 +3002,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>회원</t>
+      <t>찾는</t>
     </r>
     <r>
       <rPr>
@@ -2837,6 +3020,225 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>질문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입양</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>처리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게시글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>댓글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>관리</t>
     </r>
     <phoneticPr fontId="24" type="noConversion"/>
@@ -2850,7 +3252,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>상품</t>
+      <t>후원금</t>
     </r>
     <r>
       <rPr>
@@ -2868,7 +3270,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>리뷰</t>
+      <t>내역</t>
     </r>
     <r>
       <rPr>
@@ -2886,6 +3288,42 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>관리</t>
     </r>
     <phoneticPr fontId="24" type="noConversion"/>
@@ -2899,7 +3337,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>상품</t>
+      <t>입양</t>
     </r>
     <r>
       <rPr>
@@ -2917,7 +3355,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>목록</t>
+      <t>관련</t>
     </r>
     <r>
       <rPr>
@@ -2935,6 +3373,662 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>통계</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통계</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환불</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통계</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환불</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.22</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.23</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.24</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.25</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원전체</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>김범석</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>표시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>닉네임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좋아요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게시글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공유</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>태그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>표시</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 선택값에 따른 이미지 표시</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인기글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.6</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물병원 정보 확인</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정렬</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물병원 at Web</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물약국 at Web</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동물약국</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>확인</t>
     </r>
     <phoneticPr fontId="24" type="noConversion"/>
@@ -2948,7 +4042,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>전체</t>
+      <t>소개</t>
     </r>
     <r>
       <rPr>
@@ -2956,850 +4050,48 @@
         <color rgb="FF434343"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삭제</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비밀글</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자주</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>찾는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>질문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비밀글</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관련</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입양</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>처리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상태</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>변경</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>게시글</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>댓글</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>후원금</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내역</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입양</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관련</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통계</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통계</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분석</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통계</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>취소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교환</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>환불</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통계</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>취소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교환</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>환불</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>배송</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.22</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.23</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.24</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.25</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
+      <t xml:space="preserve"> at Web</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">서비스 안내 </t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">인사말 </t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤리경영</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션/비전</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>조직도</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>오시는길</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.8</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.9</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
@@ -3807,7 +4099,27 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>팀원전체</t>
+    <t>5.2</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.6</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
@@ -3815,422 +4127,7 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>표시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>닉네임</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>좋아요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>게시글</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공유</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>태그</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>표시</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리 선택값에 따른 이미지 표시</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인기글</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.6</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물병원 정보 확인</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>필터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정렬</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물병원 at Web</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물약국 at Web</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>동물약국</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소개</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at Web</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">서비스 안내 </t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">인사말 </t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤리경영</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션/비전</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>조직도</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>오시는길</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.7</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.8</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.9</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.0</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.2</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.3</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.5</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.4</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.6</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.7</t>
+    <t>관리자 등록</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -5416,26 +5313,51 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="31" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="31" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5455,9 +5377,6 @@
     <xf numFmtId="49" fontId="22" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5468,11 +5387,6 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5488,28 +5402,11 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5975,10 +5872,10 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BC150"/>
+  <dimension ref="A1:BC148"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I99" sqref="I99"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A112" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="J147" sqref="J147:BB147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -6052,40 +5949,40 @@
     </row>
     <row r="2" spans="1:55" ht="41.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="169" t="s">
+      <c r="C2" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="168"/>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="168"/>
-      <c r="AH2" s="168"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="178"/>
+      <c r="R2" s="178"/>
+      <c r="S2" s="178"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="178"/>
+      <c r="W2" s="178"/>
+      <c r="X2" s="178"/>
+      <c r="Y2" s="178"/>
+      <c r="Z2" s="178"/>
+      <c r="AA2" s="178"/>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="178"/>
+      <c r="AD2" s="178"/>
+      <c r="AE2" s="178"/>
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="178"/>
+      <c r="AH2" s="178"/>
       <c r="AI2" s="9"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
@@ -6166,41 +6063,41 @@
     </row>
     <row r="4" spans="1:55" ht="21" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="177" t="s">
+      <c r="D4" s="161"/>
+      <c r="E4" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="174" t="s">
+      <c r="J4" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="172"/>
-      <c r="L4" s="172"/>
-      <c r="M4" s="172"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="172"/>
-      <c r="P4" s="172"/>
-      <c r="Q4" s="175" t="s">
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="172"/>
-      <c r="S4" s="172"/>
-      <c r="T4" s="172"/>
-      <c r="U4" s="172"/>
-      <c r="V4" s="172"/>
-      <c r="W4" s="172"/>
-      <c r="X4" s="172"/>
-      <c r="Y4" s="172"/>
-      <c r="Z4" s="172"/>
-      <c r="AA4" s="172"/>
-      <c r="AB4" s="172"/>
-      <c r="AC4" s="172"/>
+      <c r="R4" s="161"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="161"/>
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="161"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
+      <c r="AC4" s="161"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
@@ -6230,40 +6127,40 @@
     </row>
     <row r="5" spans="1:55" ht="21" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="172"/>
-      <c r="E5" s="181" t="s">
+      <c r="D5" s="161"/>
+      <c r="E5" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="172"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="171" t="s">
+      <c r="J5" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="172"/>
-      <c r="L5" s="172"/>
-      <c r="M5" s="172"/>
-      <c r="N5" s="172"/>
-      <c r="O5" s="172"/>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="173">
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="180">
         <v>45562</v>
       </c>
-      <c r="R5" s="172"/>
-      <c r="S5" s="172"/>
-      <c r="T5" s="172"/>
-      <c r="U5" s="172"/>
-      <c r="V5" s="172"/>
-      <c r="W5" s="172"/>
-      <c r="X5" s="172"/>
-      <c r="Y5" s="172"/>
-      <c r="Z5" s="172"/>
-      <c r="AA5" s="172"/>
-      <c r="AB5" s="172"/>
+      <c r="R5" s="161"/>
+      <c r="S5" s="161"/>
+      <c r="T5" s="161"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="161"/>
+      <c r="W5" s="161"/>
+      <c r="X5" s="161"/>
+      <c r="Y5" s="161"/>
+      <c r="Z5" s="161"/>
+      <c r="AA5" s="161"/>
+      <c r="AB5" s="161"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="15"/>
       <c r="AE5" s="1"/>
@@ -6405,163 +6302,163 @@
       <c r="BC7" s="19"/>
     </row>
     <row r="8" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A8" s="159" t="s">
+      <c r="A8" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="160"/>
-      <c r="C8" s="179" t="s">
+      <c r="B8" s="171"/>
+      <c r="C8" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="179" t="s">
+      <c r="D8" s="158" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="179" t="s">
+      <c r="E8" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="179" t="s">
+      <c r="F8" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="179" t="s">
+      <c r="G8" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="179" t="s">
+      <c r="H8" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="182" t="s">
+      <c r="I8" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="184" t="s">
+      <c r="J8" s="166" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="184"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="184"/>
-      <c r="N8" s="184"/>
-      <c r="O8" s="185" t="s">
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="185"/>
-      <c r="Q8" s="185"/>
-      <c r="R8" s="185"/>
-      <c r="S8" s="185"/>
-      <c r="T8" s="185" t="s">
+      <c r="P8" s="167"/>
+      <c r="Q8" s="167"/>
+      <c r="R8" s="167"/>
+      <c r="S8" s="167"/>
+      <c r="T8" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="U8" s="185"/>
-      <c r="V8" s="185"/>
-      <c r="W8" s="185"/>
-      <c r="X8" s="185"/>
-      <c r="Y8" s="186" t="s">
+      <c r="U8" s="167"/>
+      <c r="V8" s="167"/>
+      <c r="W8" s="167"/>
+      <c r="X8" s="167"/>
+      <c r="Y8" s="168" t="s">
         <v>106</v>
       </c>
-      <c r="Z8" s="186"/>
-      <c r="AA8" s="186"/>
-      <c r="AB8" s="186"/>
-      <c r="AC8" s="186"/>
-      <c r="AD8" s="165" t="s">
+      <c r="Z8" s="168"/>
+      <c r="AA8" s="168"/>
+      <c r="AB8" s="168"/>
+      <c r="AC8" s="168"/>
+      <c r="AD8" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="AE8" s="165"/>
-      <c r="AF8" s="165"/>
-      <c r="AG8" s="165"/>
-      <c r="AH8" s="165"/>
-      <c r="AI8" s="165" t="s">
+      <c r="AE8" s="169"/>
+      <c r="AF8" s="169"/>
+      <c r="AG8" s="169"/>
+      <c r="AH8" s="169"/>
+      <c r="AI8" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="AJ8" s="165"/>
-      <c r="AK8" s="165"/>
-      <c r="AL8" s="165"/>
-      <c r="AM8" s="165"/>
-      <c r="AN8" s="166" t="s">
+      <c r="AJ8" s="169"/>
+      <c r="AK8" s="169"/>
+      <c r="AL8" s="169"/>
+      <c r="AM8" s="169"/>
+      <c r="AN8" s="176" t="s">
         <v>107</v>
       </c>
-      <c r="AO8" s="166"/>
-      <c r="AP8" s="166"/>
-      <c r="AQ8" s="166"/>
-      <c r="AR8" s="166"/>
-      <c r="AS8" s="178" t="s">
+      <c r="AO8" s="176"/>
+      <c r="AP8" s="176"/>
+      <c r="AQ8" s="176"/>
+      <c r="AR8" s="176"/>
+      <c r="AS8" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="AT8" s="178"/>
-      <c r="AU8" s="178"/>
-      <c r="AV8" s="178"/>
-      <c r="AW8" s="178"/>
-      <c r="AX8" s="178" t="s">
+      <c r="AT8" s="157"/>
+      <c r="AU8" s="157"/>
+      <c r="AV8" s="157"/>
+      <c r="AW8" s="157"/>
+      <c r="AX8" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="AY8" s="178"/>
-      <c r="AZ8" s="178"/>
-      <c r="BA8" s="178"/>
-      <c r="BB8" s="178"/>
+      <c r="AY8" s="157"/>
+      <c r="AZ8" s="157"/>
+      <c r="BA8" s="157"/>
+      <c r="BB8" s="157"/>
       <c r="BC8" s="19"/>
     </row>
     <row r="9" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A9" s="161"/>
-      <c r="B9" s="162"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="184"/>
-      <c r="K9" s="184"/>
-      <c r="L9" s="184"/>
-      <c r="M9" s="184"/>
-      <c r="N9" s="184"/>
-      <c r="O9" s="185"/>
-      <c r="P9" s="185"/>
-      <c r="Q9" s="185"/>
-      <c r="R9" s="185"/>
-      <c r="S9" s="185"/>
-      <c r="T9" s="185"/>
-      <c r="U9" s="185"/>
-      <c r="V9" s="185"/>
-      <c r="W9" s="185"/>
-      <c r="X9" s="185"/>
-      <c r="Y9" s="186"/>
-      <c r="Z9" s="186"/>
-      <c r="AA9" s="186"/>
-      <c r="AB9" s="186"/>
-      <c r="AC9" s="186"/>
-      <c r="AD9" s="165"/>
-      <c r="AE9" s="165"/>
-      <c r="AF9" s="165"/>
-      <c r="AG9" s="165"/>
-      <c r="AH9" s="165"/>
-      <c r="AI9" s="165"/>
-      <c r="AJ9" s="165"/>
-      <c r="AK9" s="165"/>
-      <c r="AL9" s="165"/>
-      <c r="AM9" s="165"/>
-      <c r="AN9" s="166"/>
-      <c r="AO9" s="166"/>
-      <c r="AP9" s="166"/>
-      <c r="AQ9" s="166"/>
-      <c r="AR9" s="166"/>
-      <c r="AS9" s="178"/>
-      <c r="AT9" s="178"/>
-      <c r="AU9" s="178"/>
-      <c r="AV9" s="178"/>
-      <c r="AW9" s="178"/>
-      <c r="AX9" s="178"/>
-      <c r="AY9" s="178"/>
-      <c r="AZ9" s="178"/>
-      <c r="BA9" s="178"/>
-      <c r="BB9" s="178"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="166"/>
+      <c r="M9" s="166"/>
+      <c r="N9" s="166"/>
+      <c r="O9" s="167"/>
+      <c r="P9" s="167"/>
+      <c r="Q9" s="167"/>
+      <c r="R9" s="167"/>
+      <c r="S9" s="167"/>
+      <c r="T9" s="167"/>
+      <c r="U9" s="167"/>
+      <c r="V9" s="167"/>
+      <c r="W9" s="167"/>
+      <c r="X9" s="167"/>
+      <c r="Y9" s="168"/>
+      <c r="Z9" s="168"/>
+      <c r="AA9" s="168"/>
+      <c r="AB9" s="168"/>
+      <c r="AC9" s="168"/>
+      <c r="AD9" s="169"/>
+      <c r="AE9" s="169"/>
+      <c r="AF9" s="169"/>
+      <c r="AG9" s="169"/>
+      <c r="AH9" s="169"/>
+      <c r="AI9" s="169"/>
+      <c r="AJ9" s="169"/>
+      <c r="AK9" s="169"/>
+      <c r="AL9" s="169"/>
+      <c r="AM9" s="169"/>
+      <c r="AN9" s="176"/>
+      <c r="AO9" s="176"/>
+      <c r="AP9" s="176"/>
+      <c r="AQ9" s="176"/>
+      <c r="AR9" s="176"/>
+      <c r="AS9" s="157"/>
+      <c r="AT9" s="157"/>
+      <c r="AU9" s="157"/>
+      <c r="AV9" s="157"/>
+      <c r="AW9" s="157"/>
+      <c r="AX9" s="157"/>
+      <c r="AY9" s="157"/>
+      <c r="AZ9" s="157"/>
+      <c r="BA9" s="157"/>
+      <c r="BB9" s="157"/>
       <c r="BC9" s="22"/>
     </row>
     <row r="10" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A10" s="163"/>
-      <c r="B10" s="164"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="183"/>
+      <c r="A10" s="174"/>
+      <c r="B10" s="175"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="165"/>
       <c r="J10" s="53" t="s">
         <v>14</v>
       </c>
@@ -6907,7 +6804,7 @@
         <v>110</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F14" s="58">
         <v>45558</v>
@@ -6970,10 +6867,10 @@
       <c r="BC14" s="24"/>
     </row>
     <row r="15" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A15" s="152">
+      <c r="A15" s="155">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B15" s="153"/>
+      <c r="B15" s="156"/>
       <c r="C15" s="91" t="s">
         <v>111</v>
       </c>
@@ -7044,10 +6941,10 @@
       <c r="BC15" s="24"/>
     </row>
     <row r="16" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A16" s="152">
+      <c r="A16" s="155">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B16" s="153"/>
+      <c r="B16" s="156"/>
       <c r="C16" s="56" t="s">
         <v>113</v>
       </c>
@@ -7118,10 +7015,10 @@
       <c r="BC16" s="24"/>
     </row>
     <row r="17" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A17" s="152">
+      <c r="A17" s="155">
         <v>2.4</v>
       </c>
-      <c r="B17" s="153"/>
+      <c r="B17" s="156"/>
       <c r="C17" s="56" t="s">
         <v>114</v>
       </c>
@@ -7329,10 +7226,10 @@
       <c r="BC19" s="24"/>
     </row>
     <row r="20" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A20" s="152">
+      <c r="A20" s="155">
         <v>3.2</v>
       </c>
-      <c r="B20" s="153">
+      <c r="B20" s="156">
         <v>3.2</v>
       </c>
       <c r="C20" s="91" t="s">
@@ -7403,10 +7300,10 @@
       <c r="BC20" s="24"/>
     </row>
     <row r="21" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A21" s="152">
+      <c r="A21" s="155">
         <v>3.3</v>
       </c>
-      <c r="B21" s="153">
+      <c r="B21" s="156">
         <v>3.3</v>
       </c>
       <c r="C21" s="56" t="s">
@@ -7479,10 +7376,10 @@
       <c r="BC21" s="24"/>
     </row>
     <row r="22" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A22" s="152">
+      <c r="A22" s="155">
         <v>3.4</v>
       </c>
-      <c r="B22" s="153">
+      <c r="B22" s="156">
         <v>3.4</v>
       </c>
       <c r="C22" s="56" t="s">
@@ -7955,8 +7852,8 @@
       <c r="BB28" s="128"/>
     </row>
     <row r="29" spans="1:55" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="152"/>
-      <c r="B29" s="153"/>
+      <c r="A29" s="155"/>
+      <c r="B29" s="156"/>
       <c r="C29" s="56"/>
       <c r="D29" s="56"/>
       <c r="E29" s="82"/>
@@ -8019,8 +7916,8 @@
       <c r="BB29" s="123"/>
     </row>
     <row r="30" spans="1:55" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="152"/>
-      <c r="B30" s="153"/>
+      <c r="A30" s="155"/>
+      <c r="B30" s="156"/>
       <c r="C30" s="91"/>
       <c r="D30" s="56"/>
       <c r="E30" s="57"/>
@@ -8083,8 +7980,8 @@
       <c r="BB30" s="123"/>
     </row>
     <row r="31" spans="1:55" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="152"/>
-      <c r="B31" s="153"/>
+      <c r="A31" s="155"/>
+      <c r="B31" s="156"/>
       <c r="C31" s="56"/>
       <c r="D31" s="56"/>
       <c r="E31" s="82"/>
@@ -8147,8 +8044,8 @@
       <c r="BB31" s="123"/>
     </row>
     <row r="32" spans="1:55" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="152"/>
-      <c r="B32" s="153"/>
+      <c r="A32" s="155"/>
+      <c r="B32" s="156"/>
       <c r="C32" s="56"/>
       <c r="D32" s="56"/>
       <c r="E32" s="82"/>
@@ -8211,10 +8108,10 @@
       <c r="BB32" s="123"/>
     </row>
     <row r="33" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A33" s="157">
+      <c r="A33" s="185">
         <v>4.2</v>
       </c>
-      <c r="B33" s="158"/>
+      <c r="B33" s="186"/>
       <c r="C33" s="131" t="s">
         <v>119</v>
       </c>
@@ -8489,7 +8386,7 @@
         <v>123</v>
       </c>
       <c r="E37" s="57" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F37" s="58">
         <v>45566</v>
@@ -9042,10 +8939,10 @@
       <c r="BC44" s="24"/>
     </row>
     <row r="45" spans="1:55" s="31" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A45" s="155">
+      <c r="A45" s="152">
         <v>4.3</v>
       </c>
-      <c r="B45" s="156">
+      <c r="B45" s="153">
         <v>4.3</v>
       </c>
       <c r="C45" s="131" t="s">
@@ -9195,7 +9092,7 @@
         <v>3</v>
       </c>
       <c r="I47" s="149">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J47" s="137"/>
       <c r="K47" s="93"/>
@@ -9385,10 +9282,10 @@
       <c r="BC49" s="24"/>
     </row>
     <row r="50" spans="1:55" s="31" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A50" s="155">
+      <c r="A50" s="152">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B50" s="156">
+      <c r="B50" s="153">
         <v>4.4000000000000004</v>
       </c>
       <c r="C50" s="131" t="s">
@@ -9468,7 +9365,7 @@
         <v>4</v>
       </c>
       <c r="I51" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="137"/>
       <c r="K51" s="93"/>
@@ -9538,7 +9435,7 @@
         <v>4</v>
       </c>
       <c r="I52" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" s="137"/>
       <c r="K52" s="93"/>
@@ -9608,7 +9505,7 @@
         <v>4</v>
       </c>
       <c r="I53" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="137"/>
       <c r="K53" s="93"/>
@@ -10288,14 +10185,14 @@
       <c r="BC62" s="24"/>
     </row>
     <row r="63" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A63" s="155">
+      <c r="A63" s="152">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B63" s="156">
+      <c r="B63" s="153">
         <v>4.4000000000000004</v>
       </c>
       <c r="C63" s="131" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D63" s="131"/>
       <c r="E63" s="132"/>
@@ -10355,7 +10252,7 @@
       <c r="B64" s="154"/>
       <c r="C64" s="56"/>
       <c r="D64" s="57" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E64" s="57" t="s">
         <v>89</v>
@@ -10371,7 +10268,7 @@
         <v>4</v>
       </c>
       <c r="I64" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" s="137"/>
       <c r="K64" s="93"/>
@@ -10425,7 +10322,7 @@
       <c r="B65" s="154"/>
       <c r="C65" s="56"/>
       <c r="D65" s="57" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E65" s="57" t="s">
         <v>89</v>
@@ -10441,7 +10338,7 @@
         <v>4</v>
       </c>
       <c r="I65" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" s="137"/>
       <c r="K65" s="93"/>
@@ -10491,11 +10388,11 @@
       <c r="BC65" s="24"/>
     </row>
     <row r="66" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A66" s="152"/>
-      <c r="B66" s="153"/>
+      <c r="A66" s="155"/>
+      <c r="B66" s="156"/>
       <c r="C66" s="56"/>
       <c r="D66" s="57" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E66" s="57" t="s">
         <v>89</v>
@@ -10511,7 +10408,7 @@
         <v>4</v>
       </c>
       <c r="I66" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" s="137"/>
       <c r="K66" s="93"/>
@@ -10561,11 +10458,11 @@
       <c r="BC66" s="24"/>
     </row>
     <row r="67" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A67" s="152"/>
-      <c r="B67" s="153"/>
+      <c r="A67" s="155"/>
+      <c r="B67" s="156"/>
       <c r="C67" s="56"/>
       <c r="D67" s="57" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E67" s="57" t="s">
         <v>89</v>
@@ -10581,7 +10478,7 @@
         <v>4</v>
       </c>
       <c r="I67" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" s="137"/>
       <c r="K67" s="93"/>
@@ -10631,11 +10528,11 @@
       <c r="BC67" s="24"/>
     </row>
     <row r="68" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A68" s="152"/>
-      <c r="B68" s="153"/>
+      <c r="A68" s="155"/>
+      <c r="B68" s="156"/>
       <c r="C68" s="56"/>
       <c r="D68" s="57" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E68" s="57" t="s">
         <v>89</v>
@@ -10651,7 +10548,7 @@
         <v>4</v>
       </c>
       <c r="I68" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" s="137"/>
       <c r="K68" s="93"/>
@@ -10701,11 +10598,11 @@
       <c r="BC68" s="24"/>
     </row>
     <row r="69" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A69" s="152"/>
-      <c r="B69" s="153"/>
+      <c r="A69" s="155"/>
+      <c r="B69" s="156"/>
       <c r="C69" s="56"/>
       <c r="D69" s="57" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E69" s="57" t="s">
         <v>89</v>
@@ -10721,7 +10618,7 @@
         <v>4</v>
       </c>
       <c r="I69" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" s="137"/>
       <c r="K69" s="93"/>
@@ -10771,10 +10668,10 @@
       <c r="BC69" s="24"/>
     </row>
     <row r="70" spans="1:55" s="31" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A70" s="155">
+      <c r="A70" s="152">
         <v>4.5</v>
       </c>
-      <c r="B70" s="156">
+      <c r="B70" s="153">
         <v>4.5</v>
       </c>
       <c r="C70" s="132" t="s">
@@ -10974,14 +10871,14 @@
       <c r="BC72" s="24"/>
     </row>
     <row r="73" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A73" s="155" t="s">
+      <c r="A73" s="152" t="s">
+        <v>184</v>
+      </c>
+      <c r="B73" s="153">
+        <v>4.5</v>
+      </c>
+      <c r="C73" s="132" t="s">
         <v>187</v>
-      </c>
-      <c r="B73" s="156">
-        <v>4.5</v>
-      </c>
-      <c r="C73" s="132" t="s">
-        <v>190</v>
       </c>
       <c r="D73" s="131"/>
       <c r="E73" s="136"/>
@@ -11041,7 +10938,7 @@
       <c r="B74" s="154"/>
       <c r="C74" s="56"/>
       <c r="D74" s="57" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E74" s="57" t="s">
         <v>89</v>
@@ -11111,7 +11008,7 @@
       <c r="B75" s="154"/>
       <c r="C75" s="56"/>
       <c r="D75" s="56" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E75" s="57" t="s">
         <v>89</v>
@@ -11177,14 +11074,14 @@
       <c r="BC75" s="24"/>
     </row>
     <row r="76" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A76" s="155" t="s">
-        <v>200</v>
-      </c>
-      <c r="B76" s="156">
+      <c r="A76" s="152" t="s">
+        <v>197</v>
+      </c>
+      <c r="B76" s="153">
         <v>4.5</v>
       </c>
       <c r="C76" s="132" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D76" s="131"/>
       <c r="E76" s="136"/>
@@ -11244,7 +11141,7 @@
       <c r="B77" s="154"/>
       <c r="C77" s="56"/>
       <c r="D77" s="56" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E77" s="57" t="s">
         <v>89</v>
@@ -11314,7 +11211,7 @@
       <c r="B78" s="154"/>
       <c r="C78" s="56"/>
       <c r="D78" s="56" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E78" s="57" t="s">
         <v>89</v>
@@ -11380,10 +11277,10 @@
       <c r="BC78" s="24"/>
     </row>
     <row r="79" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A79" s="152" t="s">
-        <v>201</v>
-      </c>
-      <c r="B79" s="153">
+      <c r="A79" s="155" t="s">
+        <v>198</v>
+      </c>
+      <c r="B79" s="156">
         <v>4.5999999999999996</v>
       </c>
       <c r="C79" s="132" t="s">
@@ -11443,8 +11340,8 @@
       <c r="BC79" s="24"/>
     </row>
     <row r="80" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A80" s="152"/>
-      <c r="B80" s="153"/>
+      <c r="A80" s="155"/>
+      <c r="B80" s="156"/>
       <c r="C80" s="57"/>
       <c r="D80" s="56" t="s">
         <v>63</v>
@@ -11463,7 +11360,7 @@
         <v>14</v>
       </c>
       <c r="I80" s="149">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J80" s="62"/>
       <c r="K80" s="85"/>
@@ -11513,8 +11410,8 @@
       <c r="BC80" s="24"/>
     </row>
     <row r="81" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A81" s="152"/>
-      <c r="B81" s="153"/>
+      <c r="A81" s="155"/>
+      <c r="B81" s="156"/>
       <c r="C81" s="57"/>
       <c r="D81" s="56" t="s">
         <v>64</v>
@@ -11533,7 +11430,7 @@
         <v>11</v>
       </c>
       <c r="I81" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" s="62"/>
       <c r="K81" s="85"/>
@@ -11587,7 +11484,7 @@
       <c r="B82" s="154"/>
       <c r="C82" s="57"/>
       <c r="D82" s="56" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E82" s="82" t="s">
         <v>89</v>
@@ -11603,7 +11500,7 @@
         <v>14</v>
       </c>
       <c r="I82" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" s="62"/>
       <c r="K82" s="85"/>
@@ -11653,11 +11550,11 @@
       <c r="BC82" s="24"/>
     </row>
     <row r="83" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A83" s="152"/>
-      <c r="B83" s="153"/>
+      <c r="A83" s="155"/>
+      <c r="B83" s="156"/>
       <c r="C83" s="57"/>
       <c r="D83" s="56" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E83" s="82" t="s">
         <v>89</v>
@@ -11673,7 +11570,7 @@
         <v>14</v>
       </c>
       <c r="I83" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" s="62"/>
       <c r="K83" s="85"/>
@@ -11723,11 +11620,11 @@
       <c r="BC83" s="24"/>
     </row>
     <row r="84" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A84" s="152"/>
-      <c r="B84" s="153"/>
+      <c r="A84" s="155"/>
+      <c r="B84" s="156"/>
       <c r="C84" s="57"/>
       <c r="D84" s="56" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E84" s="82" t="s">
         <v>89</v>
@@ -11743,7 +11640,7 @@
         <v>14</v>
       </c>
       <c r="I84" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" s="62"/>
       <c r="K84" s="85"/>
@@ -11793,11 +11690,11 @@
       <c r="BC84" s="24"/>
     </row>
     <row r="85" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A85" s="152"/>
-      <c r="B85" s="153"/>
+      <c r="A85" s="155"/>
+      <c r="B85" s="156"/>
       <c r="C85" s="57"/>
       <c r="D85" s="151" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E85" s="82" t="s">
         <v>89</v>
@@ -11813,7 +11710,7 @@
         <v>14</v>
       </c>
       <c r="I85" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" s="62"/>
       <c r="K85" s="85"/>
@@ -11867,7 +11764,7 @@
       <c r="B86" s="154"/>
       <c r="C86" s="57"/>
       <c r="D86" s="56" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E86" s="82" t="s">
         <v>89</v>
@@ -12003,10 +11900,10 @@
       <c r="BC87" s="24"/>
     </row>
     <row r="88" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A88" s="155" t="s">
-        <v>202</v>
-      </c>
-      <c r="B88" s="156">
+      <c r="A88" s="152" t="s">
+        <v>199</v>
+      </c>
+      <c r="B88" s="153">
         <v>4.7</v>
       </c>
       <c r="C88" s="131" t="s">
@@ -12086,7 +11983,7 @@
         <v>14</v>
       </c>
       <c r="I89" s="149">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J89" s="62"/>
       <c r="K89" s="85"/>
@@ -12136,10 +12033,10 @@
       <c r="BC89" s="24"/>
     </row>
     <row r="90" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A90" s="155" t="s">
-        <v>203</v>
-      </c>
-      <c r="B90" s="156">
+      <c r="A90" s="152" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" s="153">
         <v>4.8</v>
       </c>
       <c r="C90" s="131" t="s">
@@ -12206,7 +12103,7 @@
         <v>140</v>
       </c>
       <c r="E91" s="57" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="F91" s="58">
         <v>45590</v>
@@ -12219,7 +12116,7 @@
         <v>6</v>
       </c>
       <c r="I91" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" s="62"/>
       <c r="K91" s="85"/>
@@ -12276,7 +12173,7 @@
         <v>141</v>
       </c>
       <c r="E92" s="57" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="F92" s="58">
         <v>45590</v>
@@ -12289,7 +12186,7 @@
         <v>6</v>
       </c>
       <c r="I92" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" s="62"/>
       <c r="K92" s="85"/>
@@ -12346,7 +12243,7 @@
         <v>142</v>
       </c>
       <c r="E93" s="57" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="F93" s="58">
         <v>45590</v>
@@ -12359,7 +12256,7 @@
         <v>6</v>
       </c>
       <c r="I93" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" s="62"/>
       <c r="K93" s="85"/>
@@ -12416,7 +12313,7 @@
         <v>143</v>
       </c>
       <c r="E94" s="57" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="F94" s="58">
         <v>45590</v>
@@ -12486,7 +12383,7 @@
         <v>144</v>
       </c>
       <c r="E95" s="57" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="F95" s="58">
         <v>45590</v>
@@ -12499,7 +12396,7 @@
         <v>6</v>
       </c>
       <c r="I95" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" s="62"/>
       <c r="K95" s="85"/>
@@ -12549,10 +12446,10 @@
       <c r="BC95" s="24"/>
     </row>
     <row r="96" spans="1:55" s="31" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A96" s="155" t="s">
-        <v>204</v>
-      </c>
-      <c r="B96" s="156">
+      <c r="A96" s="152" t="s">
+        <v>201</v>
+      </c>
+      <c r="B96" s="153">
         <v>4.9000000000000004</v>
       </c>
       <c r="C96" s="131" t="s">
@@ -13242,10 +13139,10 @@
       <c r="BC105" s="24"/>
     </row>
     <row r="106" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A106" s="155" t="s">
-        <v>205</v>
-      </c>
-      <c r="B106" s="156">
+      <c r="A106" s="152" t="s">
+        <v>202</v>
+      </c>
+      <c r="B106" s="153">
         <v>4.0999999999999996</v>
       </c>
       <c r="C106" s="131" t="s">
@@ -13325,7 +13222,7 @@
         <v>4</v>
       </c>
       <c r="I107" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" s="62"/>
       <c r="K107" s="85"/>
@@ -13395,7 +13292,7 @@
         <v>4</v>
       </c>
       <c r="I108" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" s="62"/>
       <c r="K108" s="85"/>
@@ -13465,7 +13362,7 @@
         <v>4</v>
       </c>
       <c r="I109" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" s="62"/>
       <c r="K109" s="85"/>
@@ -13535,7 +13432,7 @@
         <v>4</v>
       </c>
       <c r="I110" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" s="62"/>
       <c r="K110" s="85"/>
@@ -13605,7 +13502,7 @@
         <v>4</v>
       </c>
       <c r="I111" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" s="62"/>
       <c r="K111" s="85"/>
@@ -13675,7 +13572,7 @@
         <v>4</v>
       </c>
       <c r="I112" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" s="62"/>
       <c r="K112" s="85"/>
@@ -13725,10 +13622,10 @@
       <c r="BC112" s="24"/>
     </row>
     <row r="113" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A113" s="152" t="s">
-        <v>206</v>
-      </c>
-      <c r="B113" s="153">
+      <c r="A113" s="155" t="s">
+        <v>203</v>
+      </c>
+      <c r="B113" s="156">
         <v>4.17</v>
       </c>
       <c r="C113" s="132" t="s">
@@ -13788,8 +13685,8 @@
       <c r="BC113" s="24"/>
     </row>
     <row r="114" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A114" s="152"/>
-      <c r="B114" s="153"/>
+      <c r="A114" s="155"/>
+      <c r="B114" s="156"/>
       <c r="C114" s="57"/>
       <c r="D114" s="56" t="s">
         <v>152</v>
@@ -13858,8 +13755,8 @@
       <c r="BC114" s="24"/>
     </row>
     <row r="115" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A115" s="152"/>
-      <c r="B115" s="153"/>
+      <c r="A115" s="155"/>
+      <c r="B115" s="156"/>
       <c r="C115" s="56"/>
       <c r="D115" s="56" t="s">
         <v>43</v>
@@ -13928,10 +13825,10 @@
       <c r="BC115" s="24"/>
     </row>
     <row r="116" spans="1:55" s="31" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A116" s="152" t="s">
-        <v>208</v>
-      </c>
-      <c r="B116" s="153"/>
+      <c r="A116" s="155" t="s">
+        <v>205</v>
+      </c>
+      <c r="B116" s="156"/>
       <c r="C116" s="132" t="s">
         <v>44</v>
       </c>
@@ -13989,8 +13886,8 @@
       <c r="BC116" s="24"/>
     </row>
     <row r="117" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A117" s="152"/>
-      <c r="B117" s="153"/>
+      <c r="A117" s="155"/>
+      <c r="B117" s="156"/>
       <c r="C117" s="56"/>
       <c r="D117" s="56" t="s">
         <v>45</v>
@@ -14009,7 +13906,7 @@
         <v>10</v>
       </c>
       <c r="I117" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" s="62"/>
       <c r="K117" s="85"/>
@@ -14059,8 +13956,8 @@
       <c r="BC117" s="24"/>
     </row>
     <row r="118" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A118" s="152"/>
-      <c r="B118" s="153"/>
+      <c r="A118" s="155"/>
+      <c r="B118" s="156"/>
       <c r="C118" s="56"/>
       <c r="D118" s="56" t="s">
         <v>153</v>
@@ -14079,7 +13976,7 @@
         <v>10</v>
       </c>
       <c r="I118" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" s="62"/>
       <c r="K118" s="85"/>
@@ -14129,11 +14026,11 @@
       <c r="BC118" s="24"/>
     </row>
     <row r="119" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A119" s="152"/>
-      <c r="B119" s="153"/>
+      <c r="A119" s="155"/>
+      <c r="B119" s="156"/>
       <c r="C119" s="56"/>
-      <c r="D119" s="56" t="s">
-        <v>154</v>
+      <c r="D119" s="57" t="s">
+        <v>209</v>
       </c>
       <c r="E119" s="82" t="s">
         <v>87</v>
@@ -14149,7 +14046,7 @@
         <v>10</v>
       </c>
       <c r="I119" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" s="62"/>
       <c r="K119" s="85"/>
@@ -14198,29 +14095,22 @@
       <c r="BB119" s="87"/>
       <c r="BC119" s="24"/>
     </row>
-    <row r="120" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A120" s="152"/>
-      <c r="B120" s="153"/>
-      <c r="C120" s="56"/>
-      <c r="D120" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="E120" s="82" t="s">
-        <v>87</v>
-      </c>
-      <c r="F120" s="58">
-        <v>45591</v>
-      </c>
-      <c r="G120" s="58">
-        <v>45605</v>
-      </c>
-      <c r="H120" s="60">
-        <f>NETWORKDAYS(F120,G120)</f>
-        <v>10</v>
-      </c>
-      <c r="I120" s="149">
-        <v>0</v>
-      </c>
+    <row r="120" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A120" s="155" t="s">
+        <v>204</v>
+      </c>
+      <c r="B120" s="156">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="C120" s="132" t="s">
+        <v>46</v>
+      </c>
+      <c r="D120" s="131"/>
+      <c r="E120" s="136"/>
+      <c r="F120" s="133"/>
+      <c r="G120" s="133"/>
+      <c r="H120" s="134"/>
+      <c r="I120" s="135"/>
       <c r="J120" s="62"/>
       <c r="K120" s="85"/>
       <c r="L120" s="86"/>
@@ -14268,15 +14158,15 @@
       <c r="BB120" s="87"/>
       <c r="BC120" s="24"/>
     </row>
-    <row r="121" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A121" s="152"/>
-      <c r="B121" s="153"/>
-      <c r="C121" s="56"/>
+    <row r="121" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A121" s="155"/>
+      <c r="B121" s="156"/>
+      <c r="C121" s="57"/>
       <c r="D121" s="56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E121" s="82" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F121" s="58">
         <v>45591</v>
@@ -14338,22 +14228,29 @@
       <c r="BB121" s="87"/>
       <c r="BC121" s="24"/>
     </row>
-    <row r="122" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A122" s="152" t="s">
-        <v>207</v>
-      </c>
-      <c r="B122" s="153">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="C122" s="132" t="s">
-        <v>46</v>
-      </c>
-      <c r="D122" s="131"/>
-      <c r="E122" s="136"/>
-      <c r="F122" s="133"/>
-      <c r="G122" s="133"/>
-      <c r="H122" s="134"/>
-      <c r="I122" s="135"/>
+    <row r="122" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A122" s="155"/>
+      <c r="B122" s="156"/>
+      <c r="C122" s="57"/>
+      <c r="D122" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="E122" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="F122" s="58">
+        <v>45591</v>
+      </c>
+      <c r="G122" s="58">
+        <v>45605</v>
+      </c>
+      <c r="H122" s="60">
+        <f>NETWORKDAYS(F122,G122)</f>
+        <v>10</v>
+      </c>
+      <c r="I122" s="149">
+        <v>0</v>
+      </c>
       <c r="J122" s="62"/>
       <c r="K122" s="85"/>
       <c r="L122" s="86"/>
@@ -14402,11 +14299,11 @@
       <c r="BC122" s="24"/>
     </row>
     <row r="123" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A123" s="152"/>
-      <c r="B123" s="153"/>
+      <c r="A123" s="155"/>
+      <c r="B123" s="156"/>
       <c r="C123" s="57"/>
       <c r="D123" s="56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E123" s="82" t="s">
         <v>99</v>
@@ -14472,11 +14369,11 @@
       <c r="BC123" s="24"/>
     </row>
     <row r="124" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A124" s="152"/>
-      <c r="B124" s="153"/>
+      <c r="A124" s="155"/>
+      <c r="B124" s="156"/>
       <c r="C124" s="57"/>
       <c r="D124" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E124" s="82" t="s">
         <v>99</v>
@@ -14541,85 +14438,76 @@
       <c r="BB124" s="87"/>
       <c r="BC124" s="24"/>
     </row>
-    <row r="125" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A125" s="152"/>
-      <c r="B125" s="153"/>
-      <c r="C125" s="57"/>
-      <c r="D125" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="E125" s="82" t="s">
-        <v>99</v>
-      </c>
-      <c r="F125" s="58">
-        <v>45591</v>
-      </c>
-      <c r="G125" s="58">
-        <v>45605</v>
-      </c>
-      <c r="H125" s="60">
-        <f>NETWORKDAYS(F125,G125)</f>
-        <v>10</v>
-      </c>
-      <c r="I125" s="149">
-        <v>0</v>
-      </c>
-      <c r="J125" s="62"/>
-      <c r="K125" s="85"/>
-      <c r="L125" s="86"/>
-      <c r="M125" s="86"/>
-      <c r="N125" s="87"/>
+    <row r="125" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A125" s="155" t="s">
+        <v>206</v>
+      </c>
+      <c r="B125" s="156"/>
+      <c r="C125" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="D125" s="131"/>
+      <c r="E125" s="136"/>
+      <c r="F125" s="133"/>
+      <c r="G125" s="133"/>
+      <c r="H125" s="134"/>
+      <c r="I125" s="135"/>
+      <c r="J125" s="137"/>
+      <c r="K125" s="93"/>
+      <c r="L125" s="94"/>
+      <c r="M125" s="94"/>
+      <c r="N125" s="95"/>
       <c r="O125" s="88"/>
       <c r="P125" s="86"/>
       <c r="Q125" s="86"/>
       <c r="R125" s="86"/>
       <c r="S125" s="87"/>
-      <c r="T125" s="88"/>
-      <c r="U125" s="86"/>
-      <c r="V125" s="86"/>
-      <c r="W125" s="86"/>
-      <c r="X125" s="87"/>
-      <c r="Y125" s="88"/>
-      <c r="Z125" s="86"/>
-      <c r="AA125" s="86"/>
-      <c r="AB125" s="86"/>
-      <c r="AC125" s="87"/>
-      <c r="AD125" s="88"/>
-      <c r="AE125" s="86"/>
-      <c r="AF125" s="86"/>
-      <c r="AG125" s="86"/>
-      <c r="AH125" s="87"/>
-      <c r="AI125" s="88"/>
-      <c r="AJ125" s="86"/>
-      <c r="AK125" s="86"/>
-      <c r="AL125" s="86"/>
-      <c r="AM125" s="87"/>
-      <c r="AN125" s="88"/>
-      <c r="AO125" s="86"/>
-      <c r="AP125" s="86"/>
-      <c r="AQ125" s="86"/>
-      <c r="AR125" s="87"/>
-      <c r="AS125" s="88"/>
-      <c r="AT125" s="86"/>
-      <c r="AU125" s="86"/>
-      <c r="AV125" s="86"/>
-      <c r="AW125" s="87"/>
-      <c r="AX125" s="88"/>
-      <c r="AY125" s="86"/>
-      <c r="AZ125" s="86"/>
-      <c r="BA125" s="86"/>
-      <c r="BB125" s="87"/>
+      <c r="T125" s="96"/>
+      <c r="U125" s="94"/>
+      <c r="V125" s="94"/>
+      <c r="W125" s="94"/>
+      <c r="X125" s="95"/>
+      <c r="Y125" s="96"/>
+      <c r="Z125" s="94"/>
+      <c r="AA125" s="94"/>
+      <c r="AB125" s="94"/>
+      <c r="AC125" s="95"/>
+      <c r="AD125" s="96"/>
+      <c r="AE125" s="94"/>
+      <c r="AF125" s="94"/>
+      <c r="AG125" s="94"/>
+      <c r="AH125" s="95"/>
+      <c r="AI125" s="96"/>
+      <c r="AJ125" s="94"/>
+      <c r="AK125" s="94"/>
+      <c r="AL125" s="94"/>
+      <c r="AM125" s="95"/>
+      <c r="AN125" s="96"/>
+      <c r="AO125" s="94"/>
+      <c r="AP125" s="94"/>
+      <c r="AQ125" s="94"/>
+      <c r="AR125" s="95"/>
+      <c r="AS125" s="96"/>
+      <c r="AT125" s="94"/>
+      <c r="AU125" s="94"/>
+      <c r="AV125" s="94"/>
+      <c r="AW125" s="95"/>
+      <c r="AX125" s="96"/>
+      <c r="AY125" s="94"/>
+      <c r="AZ125" s="94"/>
+      <c r="BA125" s="94"/>
+      <c r="BB125" s="95"/>
       <c r="BC125" s="24"/>
     </row>
     <row r="126" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A126" s="152"/>
-      <c r="B126" s="153"/>
+      <c r="A126" s="155"/>
+      <c r="B126" s="156"/>
       <c r="C126" s="57"/>
-      <c r="D126" s="56" t="s">
-        <v>160</v>
+      <c r="D126" s="57" t="s">
+        <v>100</v>
       </c>
       <c r="E126" s="82" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F126" s="58">
         <v>45591</v>
@@ -14632,13 +14520,13 @@
         <v>10</v>
       </c>
       <c r="I126" s="149">
-        <v>0</v>
-      </c>
-      <c r="J126" s="62"/>
-      <c r="K126" s="85"/>
-      <c r="L126" s="86"/>
-      <c r="M126" s="86"/>
-      <c r="N126" s="87"/>
+        <v>1</v>
+      </c>
+      <c r="J126" s="137"/>
+      <c r="K126" s="93"/>
+      <c r="L126" s="94"/>
+      <c r="M126" s="94"/>
+      <c r="N126" s="95"/>
       <c r="O126" s="88"/>
       <c r="P126" s="86"/>
       <c r="Q126" s="86"/>
@@ -14648,53 +14536,62 @@
       <c r="U126" s="86"/>
       <c r="V126" s="86"/>
       <c r="W126" s="86"/>
-      <c r="X126" s="87"/>
-      <c r="Y126" s="88"/>
-      <c r="Z126" s="86"/>
-      <c r="AA126" s="86"/>
-      <c r="AB126" s="86"/>
-      <c r="AC126" s="87"/>
-      <c r="AD126" s="88"/>
-      <c r="AE126" s="86"/>
-      <c r="AF126" s="86"/>
-      <c r="AG126" s="86"/>
-      <c r="AH126" s="87"/>
-      <c r="AI126" s="88"/>
-      <c r="AJ126" s="86"/>
-      <c r="AK126" s="86"/>
-      <c r="AL126" s="86"/>
-      <c r="AM126" s="87"/>
-      <c r="AN126" s="88"/>
-      <c r="AO126" s="86"/>
-      <c r="AP126" s="86"/>
-      <c r="AQ126" s="86"/>
-      <c r="AR126" s="87"/>
-      <c r="AS126" s="88"/>
-      <c r="AT126" s="86"/>
-      <c r="AU126" s="86"/>
-      <c r="AV126" s="86"/>
-      <c r="AW126" s="87"/>
-      <c r="AX126" s="88"/>
-      <c r="AY126" s="86"/>
-      <c r="AZ126" s="86"/>
-      <c r="BA126" s="86"/>
-      <c r="BB126" s="87"/>
+      <c r="X126" s="95"/>
+      <c r="Y126" s="96"/>
+      <c r="Z126" s="94"/>
+      <c r="AA126" s="94"/>
+      <c r="AB126" s="94"/>
+      <c r="AC126" s="95"/>
+      <c r="AD126" s="96"/>
+      <c r="AE126" s="94"/>
+      <c r="AF126" s="94"/>
+      <c r="AG126" s="94"/>
+      <c r="AH126" s="95"/>
+      <c r="AI126" s="96"/>
+      <c r="AJ126" s="94"/>
+      <c r="AK126" s="94"/>
+      <c r="AL126" s="94"/>
+      <c r="AM126" s="95"/>
+      <c r="AN126" s="96"/>
+      <c r="AO126" s="94"/>
+      <c r="AP126" s="94"/>
+      <c r="AQ126" s="94"/>
+      <c r="AR126" s="95"/>
+      <c r="AS126" s="96"/>
+      <c r="AT126" s="94"/>
+      <c r="AU126" s="94"/>
+      <c r="AV126" s="94"/>
+      <c r="AW126" s="95"/>
+      <c r="AX126" s="96"/>
+      <c r="AY126" s="94"/>
+      <c r="AZ126" s="94"/>
+      <c r="BA126" s="94"/>
+      <c r="BB126" s="95"/>
       <c r="BC126" s="24"/>
     </row>
-    <row r="127" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A127" s="152" t="s">
-        <v>209</v>
-      </c>
-      <c r="B127" s="153"/>
-      <c r="C127" s="132" t="s">
-        <v>47</v>
-      </c>
-      <c r="D127" s="131"/>
-      <c r="E127" s="136"/>
-      <c r="F127" s="133"/>
-      <c r="G127" s="133"/>
-      <c r="H127" s="134"/>
-      <c r="I127" s="135"/>
+    <row r="127" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A127" s="155"/>
+      <c r="B127" s="156"/>
+      <c r="C127" s="57"/>
+      <c r="D127" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="E127" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="F127" s="58">
+        <v>45591</v>
+      </c>
+      <c r="G127" s="58">
+        <v>45606</v>
+      </c>
+      <c r="H127" s="60">
+        <f>NETWORKDAYS(F127,G127)</f>
+        <v>10</v>
+      </c>
+      <c r="I127" s="149">
+        <v>1</v>
+      </c>
       <c r="J127" s="137"/>
       <c r="K127" s="93"/>
       <c r="L127" s="94"/>
@@ -14705,10 +14602,10 @@
       <c r="Q127" s="86"/>
       <c r="R127" s="86"/>
       <c r="S127" s="87"/>
-      <c r="T127" s="96"/>
-      <c r="U127" s="94"/>
-      <c r="V127" s="94"/>
-      <c r="W127" s="94"/>
+      <c r="T127" s="88"/>
+      <c r="U127" s="86"/>
+      <c r="V127" s="86"/>
+      <c r="W127" s="86"/>
       <c r="X127" s="95"/>
       <c r="Y127" s="96"/>
       <c r="Z127" s="94"/>
@@ -14743,24 +14640,21 @@
       <c r="BC127" s="24"/>
     </row>
     <row r="128" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A128" s="152"/>
-      <c r="B128" s="153"/>
+      <c r="A128" s="155"/>
+      <c r="B128" s="156"/>
       <c r="C128" s="57"/>
-      <c r="D128" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="E128" s="82" t="s">
-        <v>91</v>
+      <c r="D128" s="56" t="s">
+        <v>158</v>
       </c>
       <c r="F128" s="58">
         <v>45591</v>
       </c>
       <c r="G128" s="58">
-        <v>45605</v>
+        <v>45607</v>
       </c>
       <c r="H128" s="60">
         <f>NETWORKDAYS(F128,G128)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I128" s="149">
         <v>0</v>
@@ -14813,27 +14707,27 @@
       <c r="BC128" s="24"/>
     </row>
     <row r="129" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A129" s="152"/>
-      <c r="B129" s="153"/>
+      <c r="A129" s="155"/>
+      <c r="B129" s="156"/>
       <c r="C129" s="57"/>
-      <c r="D129" s="57" t="s">
-        <v>101</v>
+      <c r="D129" s="56" t="s">
+        <v>159</v>
       </c>
       <c r="E129" s="82" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F129" s="58">
         <v>45591</v>
       </c>
       <c r="G129" s="58">
-        <v>45606</v>
+        <v>45608</v>
       </c>
       <c r="H129" s="60">
         <f>NETWORKDAYS(F129,G129)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I129" s="149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" s="137"/>
       <c r="K129" s="93"/>
@@ -14882,25 +14776,23 @@
       <c r="BB129" s="95"/>
       <c r="BC129" s="24"/>
     </row>
-    <row r="130" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A130" s="152"/>
-      <c r="B130" s="153"/>
+    <row r="130" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A130" s="155"/>
+      <c r="B130" s="156"/>
       <c r="C130" s="57"/>
       <c r="D130" s="56" t="s">
-        <v>161</v>
-      </c>
-      <c r="E130" s="82" t="s">
-        <v>91</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="E130" s="82"/>
       <c r="F130" s="58">
         <v>45591</v>
       </c>
       <c r="G130" s="58">
-        <v>45607</v>
+        <v>45609</v>
       </c>
       <c r="H130" s="60">
         <f>NETWORKDAYS(F130,G130)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I130" s="149">
         <v>0</v>
@@ -14952,29 +14844,22 @@
       <c r="BB130" s="95"/>
       <c r="BC130" s="24"/>
     </row>
-    <row r="131" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A131" s="152"/>
-      <c r="B131" s="153"/>
-      <c r="C131" s="57"/>
-      <c r="D131" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="E131" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="F131" s="58">
-        <v>45591</v>
-      </c>
-      <c r="G131" s="58">
-        <v>45608</v>
-      </c>
-      <c r="H131" s="60">
-        <f>NETWORKDAYS(F131,G131)</f>
-        <v>12</v>
-      </c>
-      <c r="I131" s="149">
-        <v>0</v>
-      </c>
+    <row r="131" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A131" s="155" t="s">
+        <v>207</v>
+      </c>
+      <c r="B131" s="156">
+        <v>4.21</v>
+      </c>
+      <c r="C131" s="132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" s="131"/>
+      <c r="E131" s="132"/>
+      <c r="F131" s="133"/>
+      <c r="G131" s="133"/>
+      <c r="H131" s="134"/>
+      <c r="I131" s="135"/>
       <c r="J131" s="137"/>
       <c r="K131" s="93"/>
       <c r="L131" s="94"/>
@@ -15023,14 +14908,14 @@
       <c r="BC131" s="24"/>
     </row>
     <row r="132" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A132" s="152"/>
-      <c r="B132" s="153"/>
+      <c r="A132" s="155"/>
+      <c r="B132" s="156"/>
       <c r="C132" s="57"/>
       <c r="D132" s="56" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E132" s="82" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F132" s="58">
         <v>45591</v>
@@ -15093,17 +14978,17 @@
       <c r="BC132" s="24"/>
     </row>
     <row r="133" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A133" s="152" t="s">
-        <v>210</v>
-      </c>
-      <c r="B133" s="153">
-        <v>4.21</v>
+      <c r="A133" s="155" t="s">
+        <v>171</v>
+      </c>
+      <c r="B133" s="156">
+        <v>4.22</v>
       </c>
       <c r="C133" s="132" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D133" s="131"/>
-      <c r="E133" s="132"/>
+      <c r="E133" s="136"/>
       <c r="F133" s="133"/>
       <c r="G133" s="133"/>
       <c r="H133" s="134"/>
@@ -15156,14 +15041,14 @@
       <c r="BC133" s="24"/>
     </row>
     <row r="134" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A134" s="152"/>
-      <c r="B134" s="153"/>
+      <c r="A134" s="155"/>
+      <c r="B134" s="156"/>
       <c r="C134" s="57"/>
       <c r="D134" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="E134" s="82" t="s">
-        <v>87</v>
+        <v>162</v>
+      </c>
+      <c r="E134" s="57" t="s">
+        <v>102</v>
       </c>
       <c r="F134" s="58">
         <v>45591</v>
@@ -15226,17 +15111,17 @@
       <c r="BC134" s="24"/>
     </row>
     <row r="135" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A135" s="152" t="s">
-        <v>174</v>
-      </c>
-      <c r="B135" s="153">
-        <v>4.22</v>
+      <c r="A135" s="155" t="s">
+        <v>172</v>
+      </c>
+      <c r="B135" s="156">
+        <v>4.2300000000000004</v>
       </c>
       <c r="C135" s="132" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D135" s="131"/>
-      <c r="E135" s="136"/>
+      <c r="E135" s="132"/>
       <c r="F135" s="133"/>
       <c r="G135" s="133"/>
       <c r="H135" s="134"/>
@@ -15289,14 +15174,14 @@
       <c r="BC135" s="24"/>
     </row>
     <row r="136" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A136" s="152"/>
-      <c r="B136" s="153"/>
+      <c r="A136" s="155"/>
+      <c r="B136" s="156"/>
       <c r="C136" s="57"/>
       <c r="D136" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="E136" s="57" t="s">
-        <v>102</v>
+        <v>163</v>
+      </c>
+      <c r="E136" s="82" t="s">
+        <v>90</v>
       </c>
       <c r="F136" s="58">
         <v>45591</v>
@@ -15358,18 +15243,18 @@
       <c r="BB136" s="95"/>
       <c r="BC136" s="24"/>
     </row>
-    <row r="137" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A137" s="152" t="s">
-        <v>175</v>
-      </c>
-      <c r="B137" s="153">
-        <v>4.2300000000000004</v>
+    <row r="137" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A137" s="155" t="s">
+        <v>173</v>
+      </c>
+      <c r="B137" s="156">
+        <v>4.24</v>
       </c>
       <c r="C137" s="132" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="D137" s="131"/>
-      <c r="E137" s="132"/>
+      <c r="E137" s="136"/>
       <c r="F137" s="133"/>
       <c r="G137" s="133"/>
       <c r="H137" s="134"/>
@@ -15421,15 +15306,15 @@
       <c r="BB137" s="95"/>
       <c r="BC137" s="24"/>
     </row>
-    <row r="138" spans="1:55" s="35" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A138" s="152"/>
-      <c r="B138" s="153"/>
+    <row r="138" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A138" s="155"/>
+      <c r="B138" s="156"/>
       <c r="C138" s="57"/>
       <c r="D138" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="E138" s="82" t="s">
-        <v>90</v>
+        <v>164</v>
+      </c>
+      <c r="E138" s="57" t="s">
+        <v>87</v>
       </c>
       <c r="F138" s="58">
         <v>45591</v>
@@ -15444,11 +15329,11 @@
       <c r="I138" s="149">
         <v>0</v>
       </c>
-      <c r="J138" s="137"/>
-      <c r="K138" s="93"/>
-      <c r="L138" s="94"/>
-      <c r="M138" s="94"/>
-      <c r="N138" s="95"/>
+      <c r="J138" s="62"/>
+      <c r="K138" s="85"/>
+      <c r="L138" s="86"/>
+      <c r="M138" s="86"/>
+      <c r="N138" s="87"/>
       <c r="O138" s="88"/>
       <c r="P138" s="86"/>
       <c r="Q138" s="86"/>
@@ -15458,60 +15343,67 @@
       <c r="U138" s="86"/>
       <c r="V138" s="86"/>
       <c r="W138" s="86"/>
-      <c r="X138" s="95"/>
-      <c r="Y138" s="96"/>
-      <c r="Z138" s="94"/>
-      <c r="AA138" s="94"/>
-      <c r="AB138" s="94"/>
-      <c r="AC138" s="95"/>
-      <c r="AD138" s="96"/>
-      <c r="AE138" s="94"/>
-      <c r="AF138" s="94"/>
-      <c r="AG138" s="94"/>
-      <c r="AH138" s="95"/>
-      <c r="AI138" s="96"/>
-      <c r="AJ138" s="94"/>
-      <c r="AK138" s="94"/>
-      <c r="AL138" s="94"/>
-      <c r="AM138" s="95"/>
-      <c r="AN138" s="96"/>
-      <c r="AO138" s="94"/>
-      <c r="AP138" s="94"/>
-      <c r="AQ138" s="94"/>
-      <c r="AR138" s="95"/>
-      <c r="AS138" s="96"/>
-      <c r="AT138" s="94"/>
-      <c r="AU138" s="94"/>
-      <c r="AV138" s="94"/>
-      <c r="AW138" s="95"/>
-      <c r="AX138" s="96"/>
-      <c r="AY138" s="94"/>
-      <c r="AZ138" s="94"/>
-      <c r="BA138" s="94"/>
-      <c r="BB138" s="95"/>
+      <c r="X138" s="87"/>
+      <c r="Y138" s="88"/>
+      <c r="Z138" s="86"/>
+      <c r="AA138" s="86"/>
+      <c r="AB138" s="86"/>
+      <c r="AC138" s="87"/>
+      <c r="AD138" s="88"/>
+      <c r="AE138" s="86"/>
+      <c r="AF138" s="86"/>
+      <c r="AG138" s="86"/>
+      <c r="AH138" s="87"/>
+      <c r="AI138" s="88"/>
+      <c r="AJ138" s="86"/>
+      <c r="AK138" s="86"/>
+      <c r="AL138" s="86"/>
+      <c r="AM138" s="87"/>
+      <c r="AN138" s="88"/>
+      <c r="AO138" s="86"/>
+      <c r="AP138" s="86"/>
+      <c r="AQ138" s="86"/>
+      <c r="AR138" s="87"/>
+      <c r="AS138" s="88"/>
+      <c r="AT138" s="86"/>
+      <c r="AU138" s="86"/>
+      <c r="AV138" s="86"/>
+      <c r="AW138" s="87"/>
+      <c r="AX138" s="88"/>
+      <c r="AY138" s="86"/>
+      <c r="AZ138" s="86"/>
+      <c r="BA138" s="86"/>
+      <c r="BB138" s="87"/>
       <c r="BC138" s="24"/>
     </row>
-    <row r="139" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A139" s="152" t="s">
-        <v>176</v>
-      </c>
-      <c r="B139" s="153">
-        <v>4.24</v>
-      </c>
-      <c r="C139" s="132" t="s">
-        <v>24</v>
-      </c>
-      <c r="D139" s="131"/>
-      <c r="E139" s="136"/>
-      <c r="F139" s="133"/>
-      <c r="G139" s="133"/>
-      <c r="H139" s="134"/>
-      <c r="I139" s="135"/>
-      <c r="J139" s="137"/>
-      <c r="K139" s="93"/>
-      <c r="L139" s="94"/>
-      <c r="M139" s="94"/>
-      <c r="N139" s="95"/>
+    <row r="139" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A139" s="155"/>
+      <c r="B139" s="156"/>
+      <c r="C139" s="57"/>
+      <c r="D139" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="E139" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="F139" s="58">
+        <v>45591</v>
+      </c>
+      <c r="G139" s="58">
+        <v>45609</v>
+      </c>
+      <c r="H139" s="60">
+        <f>NETWORKDAYS(F139,G139)</f>
+        <v>13</v>
+      </c>
+      <c r="I139" s="149">
+        <v>1</v>
+      </c>
+      <c r="J139" s="62"/>
+      <c r="K139" s="85"/>
+      <c r="L139" s="86"/>
+      <c r="M139" s="86"/>
+      <c r="N139" s="87"/>
       <c r="O139" s="88"/>
       <c r="P139" s="86"/>
       <c r="Q139" s="86"/>
@@ -15521,45 +15413,45 @@
       <c r="U139" s="86"/>
       <c r="V139" s="86"/>
       <c r="W139" s="86"/>
-      <c r="X139" s="95"/>
-      <c r="Y139" s="96"/>
-      <c r="Z139" s="94"/>
-      <c r="AA139" s="94"/>
-      <c r="AB139" s="94"/>
-      <c r="AC139" s="95"/>
-      <c r="AD139" s="96"/>
-      <c r="AE139" s="94"/>
-      <c r="AF139" s="94"/>
-      <c r="AG139" s="94"/>
-      <c r="AH139" s="95"/>
-      <c r="AI139" s="96"/>
-      <c r="AJ139" s="94"/>
-      <c r="AK139" s="94"/>
-      <c r="AL139" s="94"/>
-      <c r="AM139" s="95"/>
-      <c r="AN139" s="96"/>
-      <c r="AO139" s="94"/>
-      <c r="AP139" s="94"/>
-      <c r="AQ139" s="94"/>
-      <c r="AR139" s="95"/>
-      <c r="AS139" s="96"/>
-      <c r="AT139" s="94"/>
-      <c r="AU139" s="94"/>
-      <c r="AV139" s="94"/>
-      <c r="AW139" s="95"/>
-      <c r="AX139" s="96"/>
-      <c r="AY139" s="94"/>
-      <c r="AZ139" s="94"/>
-      <c r="BA139" s="94"/>
-      <c r="BB139" s="95"/>
+      <c r="X139" s="87"/>
+      <c r="Y139" s="88"/>
+      <c r="Z139" s="86"/>
+      <c r="AA139" s="86"/>
+      <c r="AB139" s="86"/>
+      <c r="AC139" s="87"/>
+      <c r="AD139" s="88"/>
+      <c r="AE139" s="86"/>
+      <c r="AF139" s="86"/>
+      <c r="AG139" s="86"/>
+      <c r="AH139" s="87"/>
+      <c r="AI139" s="88"/>
+      <c r="AJ139" s="86"/>
+      <c r="AK139" s="86"/>
+      <c r="AL139" s="86"/>
+      <c r="AM139" s="87"/>
+      <c r="AN139" s="88"/>
+      <c r="AO139" s="86"/>
+      <c r="AP139" s="86"/>
+      <c r="AQ139" s="86"/>
+      <c r="AR139" s="87"/>
+      <c r="AS139" s="88"/>
+      <c r="AT139" s="86"/>
+      <c r="AU139" s="86"/>
+      <c r="AV139" s="86"/>
+      <c r="AW139" s="87"/>
+      <c r="AX139" s="88"/>
+      <c r="AY139" s="86"/>
+      <c r="AZ139" s="86"/>
+      <c r="BA139" s="86"/>
+      <c r="BB139" s="87"/>
       <c r="BC139" s="24"/>
     </row>
     <row r="140" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A140" s="152"/>
-      <c r="B140" s="153"/>
+      <c r="A140" s="155"/>
+      <c r="B140" s="156"/>
       <c r="C140" s="57"/>
       <c r="D140" s="56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E140" s="57" t="s">
         <v>87</v>
@@ -15625,11 +15517,11 @@
       <c r="BC140" s="24"/>
     </row>
     <row r="141" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A141" s="152"/>
-      <c r="B141" s="153"/>
+      <c r="A141" s="155"/>
+      <c r="B141" s="156"/>
       <c r="C141" s="57"/>
       <c r="D141" s="56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E141" s="57" t="s">
         <v>87</v>
@@ -15694,29 +15586,22 @@
       <c r="BB141" s="87"/>
       <c r="BC141" s="24"/>
     </row>
-    <row r="142" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A142" s="152"/>
-      <c r="B142" s="153"/>
-      <c r="C142" s="57"/>
-      <c r="D142" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="E142" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="F142" s="58">
-        <v>45591</v>
-      </c>
-      <c r="G142" s="58">
-        <v>45609</v>
-      </c>
-      <c r="H142" s="60">
-        <f>NETWORKDAYS(F142,G142)</f>
-        <v>13</v>
-      </c>
-      <c r="I142" s="149">
-        <v>0</v>
-      </c>
+    <row r="142" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A142" s="155" t="s">
+        <v>174</v>
+      </c>
+      <c r="B142" s="156">
+        <v>4.25</v>
+      </c>
+      <c r="C142" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="D142" s="131"/>
+      <c r="E142" s="132"/>
+      <c r="F142" s="133"/>
+      <c r="G142" s="133"/>
+      <c r="H142" s="134"/>
+      <c r="I142" s="135"/>
       <c r="J142" s="62"/>
       <c r="K142" s="85"/>
       <c r="L142" s="86"/>
@@ -15765,14 +15650,14 @@
       <c r="BC142" s="24"/>
     </row>
     <row r="143" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A143" s="152"/>
-      <c r="B143" s="153"/>
+      <c r="A143" s="155"/>
+      <c r="B143" s="156"/>
       <c r="C143" s="57"/>
       <c r="D143" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="E143" s="57" t="s">
-        <v>87</v>
+        <v>168</v>
+      </c>
+      <c r="E143" s="82" t="s">
+        <v>103</v>
       </c>
       <c r="F143" s="58">
         <v>45591</v>
@@ -15834,22 +15719,29 @@
       <c r="BB143" s="87"/>
       <c r="BC143" s="24"/>
     </row>
-    <row r="144" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A144" s="152" t="s">
-        <v>177</v>
-      </c>
-      <c r="B144" s="153">
-        <v>4.25</v>
-      </c>
-      <c r="C144" s="132" t="s">
-        <v>25</v>
-      </c>
-      <c r="D144" s="131"/>
-      <c r="E144" s="132"/>
-      <c r="F144" s="133"/>
-      <c r="G144" s="133"/>
-      <c r="H144" s="134"/>
-      <c r="I144" s="135"/>
+    <row r="144" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A144" s="155"/>
+      <c r="B144" s="156"/>
+      <c r="C144" s="57"/>
+      <c r="D144" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="E144" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="F144" s="58">
+        <v>45591</v>
+      </c>
+      <c r="G144" s="58">
+        <v>45609</v>
+      </c>
+      <c r="H144" s="60">
+        <f>NETWORKDAYS(F144,G144)</f>
+        <v>13</v>
+      </c>
+      <c r="I144" s="149">
+        <v>0</v>
+      </c>
       <c r="J144" s="62"/>
       <c r="K144" s="85"/>
       <c r="L144" s="86"/>
@@ -15898,11 +15790,11 @@
       <c r="BC144" s="24"/>
     </row>
     <row r="145" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A145" s="152"/>
-      <c r="B145" s="153"/>
+      <c r="A145" s="155"/>
+      <c r="B145" s="156"/>
       <c r="C145" s="57"/>
       <c r="D145" s="56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E145" s="82" t="s">
         <v>103</v>
@@ -15967,25 +15859,21 @@
       <c r="BB145" s="87"/>
       <c r="BC145" s="24"/>
     </row>
-    <row r="146" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A146" s="152"/>
-      <c r="B146" s="153"/>
-      <c r="C146" s="57"/>
-      <c r="D146" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="E146" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="F146" s="58">
-        <v>45591</v>
-      </c>
-      <c r="G146" s="58">
-        <v>45609</v>
-      </c>
+    <row r="146" spans="1:55" s="30" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A146" s="155"/>
+      <c r="B146" s="156">
+        <v>4.26</v>
+      </c>
+      <c r="C146" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D146" s="56"/>
+      <c r="E146" s="57"/>
+      <c r="F146" s="58"/>
+      <c r="G146" s="58"/>
       <c r="H146" s="60">
         <f>NETWORKDAYS(F146,G146)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I146" s="149">
         <v>0</v>
@@ -16037,29 +15925,22 @@
       <c r="BB146" s="87"/>
       <c r="BC146" s="24"/>
     </row>
-    <row r="147" spans="1:55" s="34" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A147" s="152"/>
-      <c r="B147" s="153"/>
-      <c r="C147" s="57"/>
-      <c r="D147" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="E147" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="F147" s="58">
-        <v>45591</v>
-      </c>
-      <c r="G147" s="58">
-        <v>45609</v>
-      </c>
-      <c r="H147" s="60">
-        <f>NETWORKDAYS(F147,G147)</f>
-        <v>13</v>
-      </c>
-      <c r="I147" s="149">
-        <v>0</v>
-      </c>
+    <row r="147" spans="1:55" s="40" customFormat="1" ht="21" customHeight="1">
+      <c r="A147" s="155" t="s">
+        <v>175</v>
+      </c>
+      <c r="B147" s="156">
+        <v>5</v>
+      </c>
+      <c r="C147" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D147" s="25"/>
+      <c r="E147" s="25"/>
+      <c r="F147" s="119"/>
+      <c r="G147" s="119"/>
+      <c r="H147" s="38"/>
+      <c r="I147" s="37"/>
       <c r="J147" s="62"/>
       <c r="K147" s="85"/>
       <c r="L147" s="86"/>
@@ -16105,56 +15986,62 @@
       <c r="AZ147" s="86"/>
       <c r="BA147" s="86"/>
       <c r="BB147" s="87"/>
-      <c r="BC147" s="24"/>
+      <c r="BC147" s="41"/>
     </row>
     <row r="148" spans="1:55" s="30" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A148" s="152"/>
-      <c r="B148" s="153">
-        <v>4.26</v>
+      <c r="A148" s="155" t="s">
+        <v>176</v>
+      </c>
+      <c r="B148" s="156">
+        <v>5.0999999999999996</v>
       </c>
       <c r="C148" s="57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D148" s="56"/>
-      <c r="E148" s="57"/>
-      <c r="F148" s="58"/>
-      <c r="G148" s="58"/>
+      <c r="E148" s="82"/>
+      <c r="F148" s="148">
+        <v>45609</v>
+      </c>
+      <c r="G148" s="148">
+        <v>45609</v>
+      </c>
       <c r="H148" s="60">
         <f>NETWORKDAYS(F148,G148)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" s="149">
         <v>0</v>
       </c>
-      <c r="J148" s="62"/>
-      <c r="K148" s="85"/>
-      <c r="L148" s="86"/>
-      <c r="M148" s="86"/>
-      <c r="N148" s="87"/>
-      <c r="O148" s="88"/>
-      <c r="P148" s="86"/>
-      <c r="Q148" s="86"/>
-      <c r="R148" s="86"/>
-      <c r="S148" s="87"/>
-      <c r="T148" s="88"/>
-      <c r="U148" s="86"/>
-      <c r="V148" s="86"/>
-      <c r="W148" s="86"/>
-      <c r="X148" s="87"/>
-      <c r="Y148" s="88"/>
-      <c r="Z148" s="86"/>
-      <c r="AA148" s="86"/>
-      <c r="AB148" s="86"/>
-      <c r="AC148" s="87"/>
-      <c r="AD148" s="88"/>
-      <c r="AE148" s="86"/>
-      <c r="AF148" s="86"/>
-      <c r="AG148" s="86"/>
-      <c r="AH148" s="87"/>
-      <c r="AI148" s="88"/>
-      <c r="AJ148" s="86"/>
-      <c r="AK148" s="86"/>
-      <c r="AL148" s="86"/>
+      <c r="J148" s="150"/>
+      <c r="K148" s="63"/>
+      <c r="L148" s="64"/>
+      <c r="M148" s="64"/>
+      <c r="N148" s="71"/>
+      <c r="O148" s="138"/>
+      <c r="P148" s="68"/>
+      <c r="Q148" s="68"/>
+      <c r="R148" s="68"/>
+      <c r="S148" s="69"/>
+      <c r="T148" s="75"/>
+      <c r="U148" s="76"/>
+      <c r="V148" s="76"/>
+      <c r="W148" s="76"/>
+      <c r="X148" s="77"/>
+      <c r="Y148" s="75"/>
+      <c r="Z148" s="76"/>
+      <c r="AA148" s="76"/>
+      <c r="AB148" s="76"/>
+      <c r="AC148" s="77"/>
+      <c r="AD148" s="72"/>
+      <c r="AE148" s="73"/>
+      <c r="AF148" s="73"/>
+      <c r="AG148" s="73"/>
+      <c r="AH148" s="74"/>
+      <c r="AI148" s="75"/>
+      <c r="AJ148" s="76"/>
+      <c r="AK148" s="76"/>
+      <c r="AL148" s="76"/>
       <c r="AM148" s="87"/>
       <c r="AN148" s="88"/>
       <c r="AO148" s="86"/>
@@ -16173,221 +16060,71 @@
       <c r="BB148" s="87"/>
       <c r="BC148" s="24"/>
     </row>
-    <row r="149" spans="1:55" s="40" customFormat="1" ht="21" customHeight="1">
-      <c r="A149" s="152" t="s">
-        <v>178</v>
-      </c>
-      <c r="B149" s="153">
-        <v>5</v>
-      </c>
-      <c r="C149" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D149" s="25"/>
-      <c r="E149" s="25"/>
-      <c r="F149" s="119"/>
-      <c r="G149" s="119"/>
-      <c r="H149" s="38"/>
-      <c r="I149" s="37"/>
-      <c r="J149" s="27"/>
-      <c r="K149" s="28"/>
-      <c r="L149" s="29"/>
-      <c r="M149" s="29"/>
-      <c r="N149" s="27"/>
-      <c r="O149" s="27"/>
-      <c r="P149" s="27"/>
-      <c r="Q149" s="27"/>
-      <c r="R149" s="27"/>
-      <c r="S149" s="27"/>
-      <c r="T149" s="27"/>
-      <c r="U149" s="27"/>
-      <c r="V149" s="27"/>
-      <c r="W149" s="27"/>
-      <c r="X149" s="27"/>
-      <c r="Y149" s="27"/>
-      <c r="Z149" s="27"/>
-      <c r="AA149" s="27"/>
-      <c r="AB149" s="27"/>
-      <c r="AC149" s="27"/>
-      <c r="AD149" s="27"/>
-      <c r="AE149" s="27"/>
-      <c r="AF149" s="27"/>
-      <c r="AG149" s="27"/>
-      <c r="AH149" s="27"/>
-      <c r="AI149" s="27"/>
-      <c r="AJ149" s="27"/>
-      <c r="AK149" s="27"/>
-      <c r="AL149" s="27"/>
-      <c r="AM149" s="27"/>
-      <c r="AN149" s="27"/>
-      <c r="AO149" s="27"/>
-      <c r="AP149" s="27"/>
-      <c r="AQ149" s="27"/>
-      <c r="AR149" s="27"/>
-      <c r="AS149" s="27"/>
-      <c r="AT149" s="27"/>
-      <c r="AU149" s="27"/>
-      <c r="AV149" s="27"/>
-      <c r="AW149" s="27"/>
-      <c r="AX149" s="27"/>
-      <c r="AY149" s="27"/>
-      <c r="AZ149" s="27"/>
-      <c r="BA149" s="27"/>
-      <c r="BB149" s="27"/>
-      <c r="BC149" s="41"/>
-    </row>
-    <row r="150" spans="1:55" s="30" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A150" s="152" t="s">
-        <v>179</v>
-      </c>
-      <c r="B150" s="153">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C150" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="D150" s="56"/>
-      <c r="E150" s="82"/>
-      <c r="F150" s="148">
-        <v>45609</v>
-      </c>
-      <c r="G150" s="148">
-        <v>45609</v>
-      </c>
-      <c r="H150" s="60">
-        <f>NETWORKDAYS(F150,G150)</f>
-        <v>1</v>
-      </c>
-      <c r="I150" s="149">
-        <v>0</v>
-      </c>
-      <c r="J150" s="150"/>
-      <c r="K150" s="63"/>
-      <c r="L150" s="64"/>
-      <c r="M150" s="64"/>
-      <c r="N150" s="71"/>
-      <c r="O150" s="138"/>
-      <c r="P150" s="68"/>
-      <c r="Q150" s="68"/>
-      <c r="R150" s="68"/>
-      <c r="S150" s="69"/>
-      <c r="T150" s="75"/>
-      <c r="U150" s="76"/>
-      <c r="V150" s="76"/>
-      <c r="W150" s="76"/>
-      <c r="X150" s="77"/>
-      <c r="Y150" s="75"/>
-      <c r="Z150" s="76"/>
-      <c r="AA150" s="76"/>
-      <c r="AB150" s="76"/>
-      <c r="AC150" s="77"/>
-      <c r="AD150" s="72"/>
-      <c r="AE150" s="73"/>
-      <c r="AF150" s="73"/>
-      <c r="AG150" s="73"/>
-      <c r="AH150" s="74"/>
-      <c r="AI150" s="75"/>
-      <c r="AJ150" s="76"/>
-      <c r="AK150" s="76"/>
-      <c r="AL150" s="76"/>
-      <c r="AM150" s="87"/>
-      <c r="AN150" s="88"/>
-      <c r="AO150" s="86"/>
-      <c r="AP150" s="86"/>
-      <c r="AQ150" s="86"/>
-      <c r="AR150" s="87"/>
-      <c r="AS150" s="88"/>
-      <c r="AT150" s="86"/>
-      <c r="AU150" s="86"/>
-      <c r="AV150" s="86"/>
-      <c r="AW150" s="87"/>
-      <c r="AX150" s="88"/>
-      <c r="AY150" s="86"/>
-      <c r="AZ150" s="86"/>
-      <c r="BA150" s="86"/>
-      <c r="BB150" s="87"/>
-      <c r="BC150" s="24"/>
-    </row>
   </sheetData>
-  <mergeCells count="163">
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="AX8:BB9"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="AS8:AW9"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:N9"/>
-    <mergeCell ref="O8:S9"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="T8:X9"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="AD8:AH9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="AI8:AM9"/>
-    <mergeCell ref="AN8:AR9"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="Q5:AB5"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="Q4:AC4"/>
-    <mergeCell ref="P2:AH2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
+  <mergeCells count="161">
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="A87:B87"/>
@@ -16408,75 +16145,88 @@
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="AI8:AM9"/>
+    <mergeCell ref="AN8:AR9"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:AB5"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="Q4:AC4"/>
+    <mergeCell ref="P2:AH2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AX8:BB9"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="AS8:AW9"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:N9"/>
+    <mergeCell ref="O8:S9"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="T8:X9"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="AD8:AH9"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
-  <conditionalFormatting sqref="I1:I24 I144 I116 I122 I33:I45 I106 I96 I90 I88 I79 I70 I50 I127 I149 I151:I1048576">
-    <cfRule type="colorScale" priority="56">
+  <conditionalFormatting sqref="I1:I24 I142 I116 I120 I33:I45 I106 I96 I90 I88 I79 I70 I50 I125 I147 I149:I1048576">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -16486,6 +16236,109 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I114:I115">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I113">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I128 I130">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I140:I141">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I131:I137">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I138">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L28:S28 K29:BB32 U28:BB28 K25:BB27">
+    <cfRule type="expression" dxfId="8" priority="56" stopIfTrue="1">
+      <formula>AND(K$3&gt;=$F25,K$3&lt;$F25+($G25-$F25+1)*$I25%)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="57" stopIfTrue="1">
+      <formula>AND(K$3&gt;=$F25+($G25-$F25+1)*$I25%,K$3&lt;=$G25)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="58" stopIfTrue="1">
+      <formula>IF($G$2&lt;2,(OR(WEEKDAY(K$3)=1,WEEKDAY(K$3)=7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:H28">
+    <cfRule type="cellIs" dxfId="5" priority="53" stopIfTrue="1" operator="equal">
+      <formula>"완료"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="54" stopIfTrue="1" operator="equal">
+      <formula>"진행"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="55" stopIfTrue="1" operator="equal">
+      <formula>"지연"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T28">
+    <cfRule type="expression" dxfId="2" priority="83" stopIfTrue="1">
+      <formula>AND(K$3&gt;=$F28,K$3&lt;$F28+($G28-$F28+1)*$I28%)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="84" stopIfTrue="1">
+      <formula>AND(K$3&gt;=$F28+($G28-$F28+1)*$I28%,K$3&lt;=$G28)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="85" stopIfTrue="1">
+      <formula>IF($G$2&lt;2,(OR(WEEKDAY(K$3)=1,WEEKDAY(K$3)=7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I121:I124">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I97:I98 I100:I101 I105">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16495,7 +16348,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I113">
+  <conditionalFormatting sqref="I94">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16505,7 +16358,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I128:I132">
+  <conditionalFormatting sqref="I89">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16515,8 +16368,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I141:I143">
-    <cfRule type="colorScale" priority="46">
+  <conditionalFormatting sqref="I87">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -16525,7 +16378,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I133:I139">
+  <conditionalFormatting sqref="I72">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16535,8 +16388,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I140">
-    <cfRule type="colorScale" priority="44">
+  <conditionalFormatting sqref="I80 I86">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -16545,40 +16398,37 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L28:S28 K29:BB32 U28:BB28 K25:BB27">
-    <cfRule type="expression" dxfId="8" priority="39" stopIfTrue="1">
-      <formula>AND(K$3&gt;=$F25,K$3&lt;$F25+($G25-$F25+1)*$I25%)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="40" stopIfTrue="1">
-      <formula>AND(K$3&gt;=$F25+($G25-$F25+1)*$I25%,K$3&lt;=$G25)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="41" stopIfTrue="1">
-      <formula>IF($G$2&lt;2,(OR(WEEKDAY(K$3)=1,WEEKDAY(K$3)=7)))</formula>
+  <conditionalFormatting sqref="I51:I62">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25:H28">
-    <cfRule type="cellIs" dxfId="5" priority="36" stopIfTrue="1" operator="equal">
-      <formula>"완료"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="37" stopIfTrue="1" operator="equal">
-      <formula>"진행"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="38" stopIfTrue="1" operator="equal">
-      <formula>"지연"</formula>
+  <conditionalFormatting sqref="I46:I49">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T28">
-    <cfRule type="expression" dxfId="2" priority="66" stopIfTrue="1">
-      <formula>AND(K$3&gt;=$F28,K$3&lt;$F28+($G28-$F28+1)*$I28%)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="67" stopIfTrue="1">
-      <formula>AND(K$3&gt;=$F28+($G28-$F28+1)*$I28%,K$3&lt;=$G28)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="68" stopIfTrue="1">
-      <formula>IF($G$2&lt;2,(OR(WEEKDAY(K$3)=1,WEEKDAY(K$3)=7)))</formula>
+  <conditionalFormatting sqref="I143:I146">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I117:I119 I121 I123:I126">
+  <conditionalFormatting sqref="I148">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16588,8 +16438,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I107:I112">
-    <cfRule type="colorScale" priority="34">
+  <conditionalFormatting sqref="I71">
+    <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -16598,27 +16448,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I97:I98 I100:I101 I105">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I91:I95">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I89">
+  <conditionalFormatting sqref="I73">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16628,7 +16458,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I87">
+  <conditionalFormatting sqref="I74">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16638,7 +16468,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I72">
+  <conditionalFormatting sqref="I75">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I76">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16648,8 +16488,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I80:I82 I86">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="I78">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -16658,7 +16498,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:I62">
+  <conditionalFormatting sqref="I77">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64:I69">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16668,8 +16528,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46:I49">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="I99">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -16678,7 +16538,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I120">
+  <conditionalFormatting sqref="I102">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16688,7 +16548,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I145:I148">
+  <conditionalFormatting sqref="I103">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16698,7 +16558,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I150">
+  <conditionalFormatting sqref="I104">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16708,7 +16568,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I83">
+  <conditionalFormatting sqref="I81">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16718,7 +16578,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I85">
+  <conditionalFormatting sqref="I82">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16728,7 +16588,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I84">
+  <conditionalFormatting sqref="I83">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16738,17 +16598,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="colorScale" priority="91">
-      <colorScale>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I73">
+  <conditionalFormatting sqref="I84">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16758,7 +16608,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74">
+  <conditionalFormatting sqref="I85">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16768,7 +16618,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I75">
+  <conditionalFormatting sqref="I91">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16778,7 +16628,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I76">
+  <conditionalFormatting sqref="I92">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16788,7 +16638,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I78">
+  <conditionalFormatting sqref="I93">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16798,7 +16648,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I77">
+  <conditionalFormatting sqref="I95">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16808,7 +16658,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
+  <conditionalFormatting sqref="I107:I112">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16818,7 +16668,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I64:I68">
+  <conditionalFormatting sqref="I117">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I118">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16828,7 +16688,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69">
+  <conditionalFormatting sqref="I119">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16838,7 +16698,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I99">
+  <conditionalFormatting sqref="I126">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16848,7 +16708,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I102">
+  <conditionalFormatting sqref="I127">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16858,7 +16718,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I103">
+  <conditionalFormatting sqref="I129">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -16868,7 +16728,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I104">
+  <conditionalFormatting sqref="I139">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="percent" val="0"/>

--- a/resource/20.begin/220.schedule/221.HappySteps_WBS_구축일정표.xlsx
+++ b/resource/20.begin/220.schedule/221.HappySteps_WBS_구축일정표.xlsx
@@ -1917,6 +1917,1114 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>후원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> at Web</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고객</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>센터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> at Web</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찾는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>질문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1:1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내역</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> at Web</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문의</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>판매자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안내</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찜한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장바구니</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> at Web</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장바구니</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>담기</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리뷰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찾는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>질문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>입양</t>
     </r>
     <r>
@@ -1935,6 +3043,757 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>공고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>처리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게시글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>댓글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후원금</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내역</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입양</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통계</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통계</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환불</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통계</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교환</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환불</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.22</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.23</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.24</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.25</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원전체</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>김범석</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>표시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>닉네임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>태그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>표시</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 선택값에 따른 이미지 표시</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인기글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.6</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물병원 정보 확인</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>필터</t>
     </r>
     <r>
@@ -1976,15 +3835,23 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>후원</t>
+    <t>동물병원 at Web</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물약국 at Web</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동물약국</t>
     </r>
     <r>
       <rPr>
@@ -1992,20 +3859,145 @@
         <color rgb="FF434343"/>
         <rFont val="Roboto"/>
       </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
       <t xml:space="preserve"> at Web</t>
     </r>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>고객</t>
+    <t xml:space="preserve">서비스 안내 </t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">인사말 </t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤리경영</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션/비전</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>조직도</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>오시는길</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.8</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.9</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.6</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>김범석</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 등록</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대댓글</t>
     </r>
     <r>
       <rPr>
@@ -2023,7 +4015,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>센터</t>
+      <t>작성</t>
     </r>
     <r>
       <rPr>
@@ -2031,20 +4023,17 @@
         <color rgb="FF434343"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t xml:space="preserve"> at Web</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공지</t>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
     </r>
     <r>
       <rPr>
@@ -2052,6 +4041,37 @@
         <color rgb="FF434343"/>
         <rFont val="Roboto"/>
       </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좋아요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -2062,7 +4082,20 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>사항</t>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조회수</t>
     </r>
     <r>
       <rPr>
@@ -2080,20 +4113,20 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>확인</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자주</t>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리뷰</t>
     </r>
     <r>
       <rPr>
@@ -2111,2112 +4144,16 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>찾는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>질문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1:1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>작성</t>
     </r>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비밀글</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내역</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at Web</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검색</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문의</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>배송</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교환</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>반품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>판매자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>안내</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>찜한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>장바구니</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구매</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at Web</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>장바구니</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>담기</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>메인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이동</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상태</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리뷰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>목록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삭제</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비밀글</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자주</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>찾는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>질문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비밀글</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관련</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입양</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>처리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상태</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>변경</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>게시글</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>댓글</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>후원금</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내역</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입양</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관련</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통계</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통계</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분석</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통계</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>취소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교환</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>환불</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통계</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>취소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교환</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>환불</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>배송</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.22</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.23</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.24</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.25</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀원전체</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>김범석</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>표시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>닉네임</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>태그</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>표시</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리 선택값에 따른 이미지 표시</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인기글</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.6</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물병원 정보 확인</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>필터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정렬</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물병원 at Web</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물약국 at Web</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>동물약국</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소개</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> at Web</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">서비스 안내 </t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">인사말 </t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤리경영</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션/비전</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>조직도</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>오시는길</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.7</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.8</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.9</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.0</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.2</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.3</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.5</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.4</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.6</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.7</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>김범석</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 등록</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대댓글</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삭제</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>좋아요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조회수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리뷰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>강채윤,김범석</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세보기</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -5254,101 +5191,6 @@
     <xf numFmtId="49" fontId="31" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5392,6 +5234,101 @@
     <xf numFmtId="178" fontId="39" fillId="24" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5859,8 +5796,8 @@
   </sheetPr>
   <dimension ref="A1:BC149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A139" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AB29" sqref="AB29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -5934,40 +5871,40 @@
     </row>
     <row r="2" spans="1:55" ht="41.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="151" t="s">
+      <c r="C2" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="150"/>
-      <c r="T2" s="150"/>
-      <c r="U2" s="150"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="150"/>
-      <c r="X2" s="150"/>
-      <c r="Y2" s="150"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="150"/>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="150"/>
-      <c r="AH2" s="150"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="178"/>
+      <c r="R2" s="178"/>
+      <c r="S2" s="178"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="178"/>
+      <c r="W2" s="178"/>
+      <c r="X2" s="178"/>
+      <c r="Y2" s="178"/>
+      <c r="Z2" s="178"/>
+      <c r="AA2" s="178"/>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="178"/>
+      <c r="AD2" s="178"/>
+      <c r="AE2" s="178"/>
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="178"/>
+      <c r="AH2" s="178"/>
       <c r="AI2" s="9"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
@@ -6048,41 +5985,41 @@
     </row>
     <row r="4" spans="1:55" ht="21" customHeight="1">
       <c r="B4" s="1"/>
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="154"/>
-      <c r="E4" s="159" t="s">
+      <c r="D4" s="161"/>
+      <c r="E4" s="184" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="156" t="s">
+      <c r="J4" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="154"/>
-      <c r="P4" s="154"/>
-      <c r="Q4" s="157" t="s">
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="182" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="154"/>
-      <c r="S4" s="154"/>
-      <c r="T4" s="154"/>
-      <c r="U4" s="154"/>
-      <c r="V4" s="154"/>
-      <c r="W4" s="154"/>
-      <c r="X4" s="154"/>
-      <c r="Y4" s="154"/>
-      <c r="Z4" s="154"/>
-      <c r="AA4" s="154"/>
-      <c r="AB4" s="154"/>
-      <c r="AC4" s="154"/>
+      <c r="R4" s="161"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="161"/>
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="161"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
+      <c r="AC4" s="161"/>
       <c r="AD4" s="15"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7"/>
@@ -6112,40 +6049,40 @@
     </row>
     <row r="5" spans="1:55" ht="21" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="153" t="s">
+      <c r="C5" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="154"/>
-      <c r="E5" s="163" t="s">
+      <c r="D5" s="161"/>
+      <c r="E5" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="154"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="153" t="s">
+      <c r="J5" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="154"/>
-      <c r="N5" s="154"/>
-      <c r="O5" s="154"/>
-      <c r="P5" s="154"/>
-      <c r="Q5" s="155">
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="180">
         <v>45562</v>
       </c>
-      <c r="R5" s="154"/>
-      <c r="S5" s="154"/>
-      <c r="T5" s="154"/>
-      <c r="U5" s="154"/>
-      <c r="V5" s="154"/>
-      <c r="W5" s="154"/>
-      <c r="X5" s="154"/>
-      <c r="Y5" s="154"/>
-      <c r="Z5" s="154"/>
-      <c r="AA5" s="154"/>
-      <c r="AB5" s="154"/>
+      <c r="R5" s="161"/>
+      <c r="S5" s="161"/>
+      <c r="T5" s="161"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="161"/>
+      <c r="W5" s="161"/>
+      <c r="X5" s="161"/>
+      <c r="Y5" s="161"/>
+      <c r="Z5" s="161"/>
+      <c r="AA5" s="161"/>
+      <c r="AB5" s="161"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="15"/>
       <c r="AE5" s="1"/>
@@ -6287,26 +6224,26 @@
       <c r="BC7" s="19"/>
     </row>
     <row r="8" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A8" s="141" t="s">
+      <c r="A8" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="142"/>
-      <c r="C8" s="161" t="s">
+      <c r="B8" s="171"/>
+      <c r="C8" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="161" t="s">
+      <c r="D8" s="158" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="161" t="s">
+      <c r="E8" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="161" t="s">
+      <c r="F8" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="161" t="s">
+      <c r="G8" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="161" t="s">
+      <c r="H8" s="158" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="164" t="s">
@@ -6340,52 +6277,52 @@
       <c r="AA8" s="168"/>
       <c r="AB8" s="168"/>
       <c r="AC8" s="168"/>
-      <c r="AD8" s="147" t="s">
+      <c r="AD8" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="AE8" s="147"/>
-      <c r="AF8" s="147"/>
-      <c r="AG8" s="147"/>
-      <c r="AH8" s="147"/>
-      <c r="AI8" s="147" t="s">
+      <c r="AE8" s="169"/>
+      <c r="AF8" s="169"/>
+      <c r="AG8" s="169"/>
+      <c r="AH8" s="169"/>
+      <c r="AI8" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="AJ8" s="147"/>
-      <c r="AK8" s="147"/>
-      <c r="AL8" s="147"/>
-      <c r="AM8" s="147"/>
-      <c r="AN8" s="148" t="s">
+      <c r="AJ8" s="169"/>
+      <c r="AK8" s="169"/>
+      <c r="AL8" s="169"/>
+      <c r="AM8" s="169"/>
+      <c r="AN8" s="176" t="s">
         <v>105</v>
       </c>
-      <c r="AO8" s="148"/>
-      <c r="AP8" s="148"/>
-      <c r="AQ8" s="148"/>
-      <c r="AR8" s="148"/>
-      <c r="AS8" s="160" t="s">
+      <c r="AO8" s="176"/>
+      <c r="AP8" s="176"/>
+      <c r="AQ8" s="176"/>
+      <c r="AR8" s="176"/>
+      <c r="AS8" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="AT8" s="160"/>
-      <c r="AU8" s="160"/>
-      <c r="AV8" s="160"/>
-      <c r="AW8" s="160"/>
-      <c r="AX8" s="160" t="s">
+      <c r="AT8" s="157"/>
+      <c r="AU8" s="157"/>
+      <c r="AV8" s="157"/>
+      <c r="AW8" s="157"/>
+      <c r="AX8" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="AY8" s="160"/>
-      <c r="AZ8" s="160"/>
-      <c r="BA8" s="160"/>
-      <c r="BB8" s="160"/>
+      <c r="AY8" s="157"/>
+      <c r="AZ8" s="157"/>
+      <c r="BA8" s="157"/>
+      <c r="BB8" s="157"/>
       <c r="BC8" s="19"/>
     </row>
     <row r="9" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A9" s="143"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
       <c r="I9" s="165"/>
       <c r="J9" s="166"/>
       <c r="K9" s="166"/>
@@ -6407,42 +6344,42 @@
       <c r="AA9" s="168"/>
       <c r="AB9" s="168"/>
       <c r="AC9" s="168"/>
-      <c r="AD9" s="147"/>
-      <c r="AE9" s="147"/>
-      <c r="AF9" s="147"/>
-      <c r="AG9" s="147"/>
-      <c r="AH9" s="147"/>
-      <c r="AI9" s="147"/>
-      <c r="AJ9" s="147"/>
-      <c r="AK9" s="147"/>
-      <c r="AL9" s="147"/>
-      <c r="AM9" s="147"/>
-      <c r="AN9" s="148"/>
-      <c r="AO9" s="148"/>
-      <c r="AP9" s="148"/>
-      <c r="AQ9" s="148"/>
-      <c r="AR9" s="148"/>
-      <c r="AS9" s="160"/>
-      <c r="AT9" s="160"/>
-      <c r="AU9" s="160"/>
-      <c r="AV9" s="160"/>
-      <c r="AW9" s="160"/>
-      <c r="AX9" s="160"/>
-      <c r="AY9" s="160"/>
-      <c r="AZ9" s="160"/>
-      <c r="BA9" s="160"/>
-      <c r="BB9" s="160"/>
+      <c r="AD9" s="169"/>
+      <c r="AE9" s="169"/>
+      <c r="AF9" s="169"/>
+      <c r="AG9" s="169"/>
+      <c r="AH9" s="169"/>
+      <c r="AI9" s="169"/>
+      <c r="AJ9" s="169"/>
+      <c r="AK9" s="169"/>
+      <c r="AL9" s="169"/>
+      <c r="AM9" s="169"/>
+      <c r="AN9" s="176"/>
+      <c r="AO9" s="176"/>
+      <c r="AP9" s="176"/>
+      <c r="AQ9" s="176"/>
+      <c r="AR9" s="176"/>
+      <c r="AS9" s="157"/>
+      <c r="AT9" s="157"/>
+      <c r="AU9" s="157"/>
+      <c r="AV9" s="157"/>
+      <c r="AW9" s="157"/>
+      <c r="AX9" s="157"/>
+      <c r="AY9" s="157"/>
+      <c r="AZ9" s="157"/>
+      <c r="BA9" s="157"/>
+      <c r="BB9" s="157"/>
       <c r="BC9" s="22"/>
     </row>
     <row r="10" spans="1:55" ht="17.25" customHeight="1">
-      <c r="A10" s="145"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
+      <c r="A10" s="174"/>
+      <c r="B10" s="175"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
       <c r="I10" s="165"/>
       <c r="J10" s="51" t="s">
         <v>14</v>
@@ -6643,10 +6580,10 @@
       <c r="BC11" s="39"/>
     </row>
     <row r="12" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A12" s="138">
+      <c r="A12" s="152">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B12" s="138"/>
+      <c r="B12" s="152"/>
       <c r="C12" s="54" t="s">
         <v>19</v>
       </c>
@@ -6662,7 +6599,7 @@
       <c r="G12" s="57">
         <v>45617</v>
       </c>
-      <c r="H12" s="173">
+      <c r="H12" s="138">
         <f>NETWORKDAYS(F12,G12)</f>
         <v>44</v>
       </c>
@@ -6728,7 +6665,7 @@
       <c r="E13" s="35"/>
       <c r="F13" s="78"/>
       <c r="G13" s="78"/>
-      <c r="H13" s="174"/>
+      <c r="H13" s="139"/>
       <c r="I13" s="36"/>
       <c r="J13" s="26"/>
       <c r="K13" s="27"/>
@@ -6778,10 +6715,10 @@
       <c r="BC13" s="39"/>
     </row>
     <row r="14" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A14" s="138">
+      <c r="A14" s="152">
         <v>2.1</v>
       </c>
-      <c r="B14" s="138"/>
+      <c r="B14" s="152"/>
       <c r="C14" s="54" t="s">
         <v>107</v>
       </c>
@@ -6789,7 +6726,7 @@
         <v>108</v>
       </c>
       <c r="E14" s="79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F14" s="56">
         <v>45558</v>
@@ -6797,7 +6734,7 @@
       <c r="G14" s="56">
         <v>45617</v>
       </c>
-      <c r="H14" s="173">
+      <c r="H14" s="138">
         <f>NETWORKDAYS(F14,G14)</f>
         <v>44</v>
       </c>
@@ -6852,10 +6789,10 @@
       <c r="BC14" s="24"/>
     </row>
     <row r="15" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A15" s="136">
+      <c r="A15" s="153">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B15" s="137"/>
+      <c r="B15" s="154"/>
       <c r="C15" s="86" t="s">
         <v>109</v>
       </c>
@@ -6871,7 +6808,7 @@
       <c r="G15" s="56">
         <v>45617</v>
       </c>
-      <c r="H15" s="173">
+      <c r="H15" s="138">
         <f t="shared" ref="H15:H17" si="0">NETWORKDAYS(F15,G15)</f>
         <v>44</v>
       </c>
@@ -6926,10 +6863,10 @@
       <c r="BC15" s="24"/>
     </row>
     <row r="16" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A16" s="136">
+      <c r="A16" s="153">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B16" s="137"/>
+      <c r="B16" s="154"/>
       <c r="C16" s="54" t="s">
         <v>111</v>
       </c>
@@ -6945,7 +6882,7 @@
       <c r="G16" s="56">
         <v>45562</v>
       </c>
-      <c r="H16" s="173">
+      <c r="H16" s="138">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -7000,10 +6937,10 @@
       <c r="BC16" s="24"/>
     </row>
     <row r="17" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A17" s="136">
+      <c r="A17" s="153">
         <v>2.4</v>
       </c>
-      <c r="B17" s="137"/>
+      <c r="B17" s="154"/>
       <c r="C17" s="54" t="s">
         <v>112</v>
       </c>
@@ -7019,11 +6956,11 @@
       <c r="G17" s="56">
         <v>45562</v>
       </c>
-      <c r="H17" s="173">
+      <c r="H17" s="138">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I17" s="180">
+      <c r="I17" s="145">
         <v>0</v>
       </c>
       <c r="J17" s="124"/>
@@ -7085,7 +7022,7 @@
       <c r="E18" s="35"/>
       <c r="F18" s="78"/>
       <c r="G18" s="78"/>
-      <c r="H18" s="175"/>
+      <c r="H18" s="140"/>
       <c r="I18" s="36"/>
       <c r="J18" s="26"/>
       <c r="K18" s="27"/>
@@ -7135,10 +7072,10 @@
       <c r="BC18" s="39"/>
     </row>
     <row r="19" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A19" s="138">
+      <c r="A19" s="152">
         <v>3.1</v>
       </c>
-      <c r="B19" s="138">
+      <c r="B19" s="152">
         <v>3.1</v>
       </c>
       <c r="C19" s="54" t="s">
@@ -7156,11 +7093,11 @@
       <c r="G19" s="56">
         <v>45617</v>
       </c>
-      <c r="H19" s="173">
+      <c r="H19" s="138">
         <f>NETWORKDAYS(F19,G19)</f>
         <v>41</v>
       </c>
-      <c r="I19" s="181">
+      <c r="I19" s="146">
         <v>0</v>
       </c>
       <c r="J19" s="59"/>
@@ -7211,10 +7148,10 @@
       <c r="BC19" s="24"/>
     </row>
     <row r="20" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A20" s="136">
+      <c r="A20" s="153">
         <v>3.2</v>
       </c>
-      <c r="B20" s="137">
+      <c r="B20" s="154">
         <v>3.2</v>
       </c>
       <c r="C20" s="86" t="s">
@@ -7230,7 +7167,7 @@
       <c r="G20" s="56">
         <v>45617</v>
       </c>
-      <c r="H20" s="173">
+      <c r="H20" s="138">
         <f t="shared" ref="H20" si="1">NETWORKDAYS(F20,G20)</f>
         <v>41</v>
       </c>
@@ -7285,10 +7222,10 @@
       <c r="BC20" s="24"/>
     </row>
     <row r="21" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A21" s="136">
+      <c r="A21" s="153">
         <v>3.3</v>
       </c>
-      <c r="B21" s="137">
+      <c r="B21" s="154">
         <v>3.3</v>
       </c>
       <c r="C21" s="54" t="s">
@@ -7306,11 +7243,11 @@
       <c r="G21" s="56">
         <v>45617</v>
       </c>
-      <c r="H21" s="173">
+      <c r="H21" s="138">
         <f>NETWORKDAYS(F21,G21)</f>
         <v>41</v>
       </c>
-      <c r="I21" s="180">
+      <c r="I21" s="145">
         <v>0</v>
       </c>
       <c r="J21" s="124"/>
@@ -7361,10 +7298,10 @@
       <c r="BC21" s="24"/>
     </row>
     <row r="22" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A22" s="136">
+      <c r="A22" s="153">
         <v>3.4</v>
       </c>
-      <c r="B22" s="137">
+      <c r="B22" s="154">
         <v>3.4</v>
       </c>
       <c r="C22" s="54" t="s">
@@ -7382,7 +7319,7 @@
       <c r="G22" s="56">
         <v>45617</v>
       </c>
-      <c r="H22" s="173">
+      <c r="H22" s="138">
         <f>NETWORKDAYS(F22,G22)</f>
         <v>41</v>
       </c>
@@ -7437,10 +7374,10 @@
       <c r="BC22" s="24"/>
     </row>
     <row r="23" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A23" s="138">
+      <c r="A23" s="152">
         <v>3.5</v>
       </c>
-      <c r="B23" s="138">
+      <c r="B23" s="152">
         <v>3.5</v>
       </c>
       <c r="C23" s="54" t="s">
@@ -7456,7 +7393,7 @@
       <c r="G23" s="56">
         <v>45617</v>
       </c>
-      <c r="H23" s="173">
+      <c r="H23" s="138">
         <f t="shared" ref="H23" si="2">NETWORKDAYS(F23,G23)</f>
         <v>15</v>
       </c>
@@ -7522,8 +7459,8 @@
       <c r="E24" s="35"/>
       <c r="F24" s="78"/>
       <c r="G24" s="78"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="182"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="147"/>
       <c r="J24" s="26"/>
       <c r="K24" s="27"/>
       <c r="L24" s="28"/>
@@ -7572,10 +7509,10 @@
       <c r="BC24" s="39"/>
     </row>
     <row r="25" spans="1:55" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="138">
+      <c r="A25" s="152">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B25" s="138"/>
+      <c r="B25" s="152"/>
       <c r="C25" s="54" t="s">
         <v>69</v>
       </c>
@@ -7587,10 +7524,10 @@
         <v>55</v>
       </c>
       <c r="G25" s="111"/>
-      <c r="H25" s="177" t="s">
+      <c r="H25" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="I25" s="183">
+      <c r="I25" s="148">
         <v>0</v>
       </c>
       <c r="J25" s="112" t="e">
@@ -7643,8 +7580,8 @@
       <c r="BB25" s="113"/>
     </row>
     <row r="26" spans="1:55" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="138"/>
-      <c r="B26" s="138"/>
+      <c r="A26" s="152"/>
+      <c r="B26" s="152"/>
       <c r="C26" s="86" t="s">
         <v>71</v>
       </c>
@@ -7654,10 +7591,10 @@
         <v>55</v>
       </c>
       <c r="G26" s="111"/>
-      <c r="H26" s="177" t="s">
+      <c r="H26" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="183">
+      <c r="I26" s="148">
         <v>0</v>
       </c>
       <c r="J26" s="112" t="e">
@@ -7710,8 +7647,8 @@
       <c r="BB26" s="113"/>
     </row>
     <row r="27" spans="1:55" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="138"/>
-      <c r="B27" s="138"/>
+      <c r="A27" s="152"/>
+      <c r="B27" s="152"/>
       <c r="C27" s="54" t="s">
         <v>72</v>
       </c>
@@ -7721,10 +7658,10 @@
         <v>55</v>
       </c>
       <c r="G27" s="111"/>
-      <c r="H27" s="177" t="s">
+      <c r="H27" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="183">
+      <c r="I27" s="148">
         <v>0</v>
       </c>
       <c r="J27" s="112" t="e">
@@ -7788,8 +7725,8 @@
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="184"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="149"/>
       <c r="J28" s="115"/>
       <c r="K28" s="116"/>
       <c r="L28" s="117"/>
@@ -7837,18 +7774,18 @@
       <c r="BB28" s="117"/>
     </row>
     <row r="29" spans="1:55" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="136"/>
-      <c r="B29" s="137"/>
+      <c r="A29" s="153"/>
+      <c r="B29" s="154"/>
       <c r="C29" s="54"/>
       <c r="D29" s="54"/>
       <c r="E29" s="79"/>
       <c r="F29" s="56"/>
       <c r="G29" s="56"/>
-      <c r="H29" s="173">
+      <c r="H29" s="138">
         <f t="shared" ref="H29:H32" si="4">NETWORKDAYS(F29,G29)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="183">
+      <c r="I29" s="148">
         <v>0</v>
       </c>
       <c r="J29" s="112">
@@ -7901,18 +7838,18 @@
       <c r="BB29" s="113"/>
     </row>
     <row r="30" spans="1:55" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="136"/>
-      <c r="B30" s="137"/>
+      <c r="A30" s="153"/>
+      <c r="B30" s="154"/>
       <c r="C30" s="86"/>
       <c r="D30" s="54"/>
       <c r="E30" s="55"/>
       <c r="F30" s="56"/>
       <c r="G30" s="111"/>
-      <c r="H30" s="173">
+      <c r="H30" s="138">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I30" s="183">
+      <c r="I30" s="148">
         <v>0</v>
       </c>
       <c r="J30" s="112">
@@ -7965,18 +7902,18 @@
       <c r="BB30" s="113"/>
     </row>
     <row r="31" spans="1:55" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="136"/>
-      <c r="B31" s="137"/>
+      <c r="A31" s="153"/>
+      <c r="B31" s="154"/>
       <c r="C31" s="54"/>
       <c r="D31" s="54"/>
       <c r="E31" s="79"/>
       <c r="F31" s="56"/>
       <c r="G31" s="111"/>
-      <c r="H31" s="173">
+      <c r="H31" s="138">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I31" s="183">
+      <c r="I31" s="148">
         <v>0</v>
       </c>
       <c r="J31" s="112">
@@ -8029,18 +7966,18 @@
       <c r="BB31" s="113"/>
     </row>
     <row r="32" spans="1:55" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="136"/>
-      <c r="B32" s="137"/>
+      <c r="A32" s="153"/>
+      <c r="B32" s="154"/>
       <c r="C32" s="54"/>
       <c r="D32" s="54"/>
       <c r="E32" s="79"/>
       <c r="F32" s="56"/>
       <c r="G32" s="111"/>
-      <c r="H32" s="179">
+      <c r="H32" s="144">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I32" s="183">
+      <c r="I32" s="148">
         <v>0</v>
       </c>
       <c r="J32" s="112">
@@ -8093,10 +8030,10 @@
       <c r="BB32" s="113"/>
     </row>
     <row r="33" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A33" s="169">
+      <c r="A33" s="155">
         <v>4.2</v>
       </c>
-      <c r="B33" s="170"/>
+      <c r="B33" s="156"/>
       <c r="C33" s="118" t="s">
         <v>117</v>
       </c>
@@ -8154,8 +8091,8 @@
       <c r="BC33" s="24"/>
     </row>
     <row r="34" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A34" s="138"/>
-      <c r="B34" s="138"/>
+      <c r="A34" s="152"/>
+      <c r="B34" s="152"/>
       <c r="C34" s="54"/>
       <c r="D34" s="54" t="s">
         <v>118</v>
@@ -8173,7 +8110,7 @@
         <f t="shared" ref="H34" si="5">NETWORKDAYS(F34,G34)</f>
         <v>8</v>
       </c>
-      <c r="I34" s="172">
+      <c r="I34" s="137">
         <v>1</v>
       </c>
       <c r="J34" s="59"/>
@@ -8224,8 +8161,8 @@
       <c r="BC34" s="24"/>
     </row>
     <row r="35" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A35" s="138"/>
-      <c r="B35" s="138"/>
+      <c r="A35" s="152"/>
+      <c r="B35" s="152"/>
       <c r="C35" s="54"/>
       <c r="D35" s="54" t="s">
         <v>119</v>
@@ -8243,7 +8180,7 @@
         <f t="shared" ref="H35:H44" si="6">NETWORKDAYS(F35,G35)</f>
         <v>8</v>
       </c>
-      <c r="I35" s="172">
+      <c r="I35" s="137">
         <v>1</v>
       </c>
       <c r="J35" s="59"/>
@@ -8294,8 +8231,8 @@
       <c r="BC35" s="24"/>
     </row>
     <row r="36" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A36" s="138"/>
-      <c r="B36" s="138"/>
+      <c r="A36" s="152"/>
+      <c r="B36" s="152"/>
       <c r="C36" s="54"/>
       <c r="D36" s="54" t="s">
         <v>120</v>
@@ -8313,7 +8250,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I36" s="172">
+      <c r="I36" s="137">
         <v>1</v>
       </c>
       <c r="J36" s="59"/>
@@ -8364,14 +8301,14 @@
       <c r="BC36" s="24"/>
     </row>
     <row r="37" spans="1:55" s="49" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A37" s="138"/>
-      <c r="B37" s="138"/>
+      <c r="A37" s="152"/>
+      <c r="B37" s="152"/>
       <c r="C37" s="54"/>
       <c r="D37" s="54" t="s">
         <v>121</v>
       </c>
       <c r="E37" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F37" s="56">
         <v>45566</v>
@@ -8383,7 +8320,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I37" s="172">
+      <c r="I37" s="137">
         <v>1</v>
       </c>
       <c r="J37" s="59"/>
@@ -8434,8 +8371,8 @@
       <c r="BC37" s="24"/>
     </row>
     <row r="38" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A38" s="138"/>
-      <c r="B38" s="138"/>
+      <c r="A38" s="152"/>
+      <c r="B38" s="152"/>
       <c r="C38" s="54"/>
       <c r="D38" s="54" t="s">
         <v>122</v>
@@ -8453,7 +8390,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I38" s="172">
+      <c r="I38" s="137">
         <v>1</v>
       </c>
       <c r="J38" s="59"/>
@@ -8504,8 +8441,8 @@
       <c r="BC38" s="24"/>
     </row>
     <row r="39" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A39" s="138"/>
-      <c r="B39" s="138"/>
+      <c r="A39" s="152"/>
+      <c r="B39" s="152"/>
       <c r="C39" s="54"/>
       <c r="D39" s="54" t="s">
         <v>123</v>
@@ -8523,7 +8460,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I39" s="172">
+      <c r="I39" s="137">
         <v>1</v>
       </c>
       <c r="J39" s="59"/>
@@ -8574,8 +8511,8 @@
       <c r="BC39" s="24"/>
     </row>
     <row r="40" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A40" s="138"/>
-      <c r="B40" s="138"/>
+      <c r="A40" s="152"/>
+      <c r="B40" s="152"/>
       <c r="C40" s="129"/>
       <c r="D40" s="54" t="s">
         <v>124</v>
@@ -8593,7 +8530,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I40" s="172">
+      <c r="I40" s="137">
         <v>1</v>
       </c>
       <c r="J40" s="59"/>
@@ -8644,8 +8581,8 @@
       <c r="BC40" s="24"/>
     </row>
     <row r="41" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A41" s="138"/>
-      <c r="B41" s="138"/>
+      <c r="A41" s="152"/>
+      <c r="B41" s="152"/>
       <c r="C41" s="54"/>
       <c r="D41" s="54" t="s">
         <v>28</v>
@@ -8663,7 +8600,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I41" s="172">
+      <c r="I41" s="137">
         <v>1</v>
       </c>
       <c r="J41" s="59"/>
@@ -8714,8 +8651,8 @@
       <c r="BC41" s="24"/>
     </row>
     <row r="42" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A42" s="138"/>
-      <c r="B42" s="138"/>
+      <c r="A42" s="152"/>
+      <c r="B42" s="152"/>
       <c r="C42" s="54"/>
       <c r="D42" s="54" t="s">
         <v>29</v>
@@ -8733,7 +8670,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I42" s="172">
+      <c r="I42" s="137">
         <v>1</v>
       </c>
       <c r="J42" s="59"/>
@@ -8784,8 +8721,8 @@
       <c r="BC42" s="24"/>
     </row>
     <row r="43" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A43" s="138"/>
-      <c r="B43" s="138"/>
+      <c r="A43" s="152"/>
+      <c r="B43" s="152"/>
       <c r="C43" s="54"/>
       <c r="D43" s="54" t="s">
         <v>56</v>
@@ -8803,7 +8740,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I43" s="172">
+      <c r="I43" s="137">
         <v>1</v>
       </c>
       <c r="J43" s="59"/>
@@ -8854,8 +8791,8 @@
       <c r="BC43" s="24"/>
     </row>
     <row r="44" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A44" s="138"/>
-      <c r="B44" s="138"/>
+      <c r="A44" s="152"/>
+      <c r="B44" s="152"/>
       <c r="C44" s="54"/>
       <c r="D44" s="54" t="s">
         <v>57</v>
@@ -8873,7 +8810,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="I44" s="172">
+      <c r="I44" s="137">
         <v>1</v>
       </c>
       <c r="J44" s="59"/>
@@ -8924,10 +8861,10 @@
       <c r="BC44" s="24"/>
     </row>
     <row r="45" spans="1:55" s="30" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A45" s="139">
+      <c r="A45" s="150">
         <v>4.3</v>
       </c>
-      <c r="B45" s="140">
+      <c r="B45" s="151">
         <v>4.3</v>
       </c>
       <c r="C45" s="118" t="s">
@@ -8987,8 +8924,8 @@
       <c r="BC45" s="24"/>
     </row>
     <row r="46" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A46" s="138"/>
-      <c r="B46" s="138"/>
+      <c r="A46" s="152"/>
+      <c r="B46" s="152"/>
       <c r="C46" s="54"/>
       <c r="D46" s="54" t="s">
         <v>126</v>
@@ -9057,8 +8994,8 @@
       <c r="BC46" s="24"/>
     </row>
     <row r="47" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A47" s="138"/>
-      <c r="B47" s="138"/>
+      <c r="A47" s="152"/>
+      <c r="B47" s="152"/>
       <c r="C47" s="54"/>
       <c r="D47" s="54" t="s">
         <v>127</v>
@@ -9076,7 +9013,7 @@
         <f>NETWORKDAYS(F47,G47)</f>
         <v>3</v>
       </c>
-      <c r="I47" s="172">
+      <c r="I47" s="137">
         <v>0.8</v>
       </c>
       <c r="J47" s="124"/>
@@ -9127,8 +9064,8 @@
       <c r="BC47" s="24"/>
     </row>
     <row r="48" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A48" s="138"/>
-      <c r="B48" s="138"/>
+      <c r="A48" s="152"/>
+      <c r="B48" s="152"/>
       <c r="C48" s="54"/>
       <c r="D48" s="54" t="s">
         <v>128</v>
@@ -9197,8 +9134,8 @@
       <c r="BC48" s="24"/>
     </row>
     <row r="49" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A49" s="138"/>
-      <c r="B49" s="138"/>
+      <c r="A49" s="152"/>
+      <c r="B49" s="152"/>
       <c r="C49" s="54"/>
       <c r="D49" s="54" t="s">
         <v>30</v>
@@ -9267,10 +9204,10 @@
       <c r="BC49" s="24"/>
     </row>
     <row r="50" spans="1:55" s="30" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A50" s="139">
+      <c r="A50" s="150">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B50" s="140">
+      <c r="B50" s="151">
         <v>4.4000000000000004</v>
       </c>
       <c r="C50" s="118" t="s">
@@ -9330,8 +9267,8 @@
       <c r="BC50" s="24"/>
     </row>
     <row r="51" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A51" s="138"/>
-      <c r="B51" s="138"/>
+      <c r="A51" s="152"/>
+      <c r="B51" s="152"/>
       <c r="C51" s="54"/>
       <c r="D51" s="54" t="s">
         <v>130</v>
@@ -9400,8 +9337,8 @@
       <c r="BC51" s="24"/>
     </row>
     <row r="52" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A52" s="138"/>
-      <c r="B52" s="138"/>
+      <c r="A52" s="152"/>
+      <c r="B52" s="152"/>
       <c r="C52" s="54"/>
       <c r="D52" s="54" t="s">
         <v>131</v>
@@ -9470,8 +9407,8 @@
       <c r="BC52" s="24"/>
     </row>
     <row r="53" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A53" s="138"/>
-      <c r="B53" s="138"/>
+      <c r="A53" s="152"/>
+      <c r="B53" s="152"/>
       <c r="C53" s="54"/>
       <c r="D53" s="54" t="s">
         <v>132</v>
@@ -9540,14 +9477,14 @@
       <c r="BC53" s="24"/>
     </row>
     <row r="54" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A54" s="138"/>
-      <c r="B54" s="138"/>
+      <c r="A54" s="152"/>
+      <c r="B54" s="152"/>
       <c r="C54" s="54"/>
       <c r="D54" s="54" t="s">
         <v>133</v>
       </c>
       <c r="E54" s="55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F54" s="56">
         <v>45575</v>
@@ -9610,11 +9547,11 @@
       <c r="BC54" s="24"/>
     </row>
     <row r="55" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A55" s="138"/>
-      <c r="B55" s="138"/>
+      <c r="A55" s="152"/>
+      <c r="B55" s="152"/>
       <c r="C55" s="54"/>
       <c r="D55" s="54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E55" s="55" t="s">
         <v>87</v>
@@ -9680,8 +9617,8 @@
       <c r="BC55" s="24"/>
     </row>
     <row r="56" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A56" s="138"/>
-      <c r="B56" s="138"/>
+      <c r="A56" s="152"/>
+      <c r="B56" s="152"/>
       <c r="C56" s="54"/>
       <c r="D56" s="54" t="s">
         <v>33</v>
@@ -9750,8 +9687,8 @@
       <c r="BC56" s="24"/>
     </row>
     <row r="57" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A57" s="138"/>
-      <c r="B57" s="138"/>
+      <c r="A57" s="152"/>
+      <c r="B57" s="152"/>
       <c r="C57" s="54"/>
       <c r="D57" s="54" t="s">
         <v>31</v>
@@ -9820,8 +9757,8 @@
       <c r="BC57" s="24"/>
     </row>
     <row r="58" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A58" s="138"/>
-      <c r="B58" s="138"/>
+      <c r="A58" s="152"/>
+      <c r="B58" s="152"/>
       <c r="C58" s="54"/>
       <c r="D58" s="54" t="s">
         <v>32</v>
@@ -9890,8 +9827,8 @@
       <c r="BC58" s="24"/>
     </row>
     <row r="59" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A59" s="138"/>
-      <c r="B59" s="138"/>
+      <c r="A59" s="152"/>
+      <c r="B59" s="152"/>
       <c r="C59" s="54"/>
       <c r="D59" s="54" t="s">
         <v>58</v>
@@ -9960,8 +9897,8 @@
       <c r="BC59" s="24"/>
     </row>
     <row r="60" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A60" s="138"/>
-      <c r="B60" s="138"/>
+      <c r="A60" s="152"/>
+      <c r="B60" s="152"/>
       <c r="C60" s="54"/>
       <c r="D60" s="54" t="s">
         <v>59</v>
@@ -10030,8 +9967,8 @@
       <c r="BC60" s="24"/>
     </row>
     <row r="61" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A61" s="138"/>
-      <c r="B61" s="138"/>
+      <c r="A61" s="152"/>
+      <c r="B61" s="152"/>
       <c r="C61" s="54"/>
       <c r="D61" s="54" t="s">
         <v>60</v>
@@ -10100,8 +10037,8 @@
       <c r="BC61" s="24"/>
     </row>
     <row r="62" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A62" s="138"/>
-      <c r="B62" s="138"/>
+      <c r="A62" s="152"/>
+      <c r="B62" s="152"/>
       <c r="C62" s="54"/>
       <c r="D62" s="54" t="s">
         <v>34</v>
@@ -10170,14 +10107,14 @@
       <c r="BC62" s="24"/>
     </row>
     <row r="63" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A63" s="139">
+      <c r="A63" s="150">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B63" s="140">
+      <c r="B63" s="151">
         <v>4.4000000000000004</v>
       </c>
       <c r="C63" s="118" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="118"/>
       <c r="E63" s="119"/>
@@ -10233,11 +10170,11 @@
       <c r="BC63" s="24"/>
     </row>
     <row r="64" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A64" s="138"/>
-      <c r="B64" s="138"/>
+      <c r="A64" s="152"/>
+      <c r="B64" s="152"/>
       <c r="C64" s="54"/>
       <c r="D64" s="55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E64" s="55" t="s">
         <v>87</v>
@@ -10303,11 +10240,11 @@
       <c r="BC64" s="24"/>
     </row>
     <row r="65" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A65" s="138"/>
-      <c r="B65" s="138"/>
+      <c r="A65" s="152"/>
+      <c r="B65" s="152"/>
       <c r="C65" s="54"/>
       <c r="D65" s="55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E65" s="55" t="s">
         <v>87</v>
@@ -10373,11 +10310,11 @@
       <c r="BC65" s="24"/>
     </row>
     <row r="66" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A66" s="136"/>
-      <c r="B66" s="137"/>
+      <c r="A66" s="153"/>
+      <c r="B66" s="154"/>
       <c r="C66" s="54"/>
       <c r="D66" s="55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E66" s="55" t="s">
         <v>87</v>
@@ -10443,11 +10380,11 @@
       <c r="BC66" s="24"/>
     </row>
     <row r="67" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A67" s="136"/>
-      <c r="B67" s="137"/>
+      <c r="A67" s="153"/>
+      <c r="B67" s="154"/>
       <c r="C67" s="54"/>
       <c r="D67" s="55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E67" s="55" t="s">
         <v>87</v>
@@ -10513,11 +10450,11 @@
       <c r="BC67" s="24"/>
     </row>
     <row r="68" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A68" s="136"/>
-      <c r="B68" s="137"/>
+      <c r="A68" s="153"/>
+      <c r="B68" s="154"/>
       <c r="C68" s="54"/>
       <c r="D68" s="55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E68" s="55" t="s">
         <v>87</v>
@@ -10583,11 +10520,11 @@
       <c r="BC68" s="24"/>
     </row>
     <row r="69" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A69" s="136"/>
-      <c r="B69" s="137"/>
+      <c r="A69" s="153"/>
+      <c r="B69" s="154"/>
       <c r="C69" s="54"/>
       <c r="D69" s="55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E69" s="55" t="s">
         <v>87</v>
@@ -10653,10 +10590,10 @@
       <c r="BC69" s="24"/>
     </row>
     <row r="70" spans="1:55" s="30" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A70" s="139">
+      <c r="A70" s="150">
         <v>4.5</v>
       </c>
-      <c r="B70" s="140">
+      <c r="B70" s="151">
         <v>4.5</v>
       </c>
       <c r="C70" s="119" t="s">
@@ -10716,8 +10653,8 @@
       <c r="BC70" s="24"/>
     </row>
     <row r="71" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A71" s="138"/>
-      <c r="B71" s="138"/>
+      <c r="A71" s="152"/>
+      <c r="B71" s="152"/>
       <c r="C71" s="54"/>
       <c r="D71" s="54" t="s">
         <v>134</v>
@@ -10736,7 +10673,7 @@
         <v>3</v>
       </c>
       <c r="I71" s="131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" s="59"/>
       <c r="K71" s="80"/>
@@ -10786,11 +10723,11 @@
       <c r="BC71" s="24"/>
     </row>
     <row r="72" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A72" s="138"/>
-      <c r="B72" s="138"/>
+      <c r="A72" s="152"/>
+      <c r="B72" s="152"/>
       <c r="C72" s="54"/>
-      <c r="D72" s="54" t="s">
-        <v>135</v>
+      <c r="D72" s="55" t="s">
+        <v>211</v>
       </c>
       <c r="E72" s="55" t="s">
         <v>87</v>
@@ -10856,14 +10793,14 @@
       <c r="BC72" s="24"/>
     </row>
     <row r="73" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A73" s="139" t="s">
-        <v>181</v>
-      </c>
-      <c r="B73" s="140">
+      <c r="A73" s="150" t="s">
+        <v>180</v>
+      </c>
+      <c r="B73" s="151">
         <v>4.5</v>
       </c>
       <c r="C73" s="119" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D73" s="118"/>
       <c r="E73" s="123"/>
@@ -10919,11 +10856,11 @@
       <c r="BC73" s="24"/>
     </row>
     <row r="74" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A74" s="138"/>
-      <c r="B74" s="138"/>
+      <c r="A74" s="152"/>
+      <c r="B74" s="152"/>
       <c r="C74" s="54"/>
       <c r="D74" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E74" s="55" t="s">
         <v>87</v>
@@ -10989,11 +10926,11 @@
       <c r="BC74" s="24"/>
     </row>
     <row r="75" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A75" s="138"/>
-      <c r="B75" s="138"/>
+      <c r="A75" s="152"/>
+      <c r="B75" s="152"/>
       <c r="C75" s="54"/>
       <c r="D75" s="54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E75" s="55" t="s">
         <v>87</v>
@@ -11059,14 +10996,14 @@
       <c r="BC75" s="24"/>
     </row>
     <row r="76" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A76" s="139" t="s">
-        <v>194</v>
-      </c>
-      <c r="B76" s="140">
+      <c r="A76" s="150" t="s">
+        <v>193</v>
+      </c>
+      <c r="B76" s="151">
         <v>4.5</v>
       </c>
       <c r="C76" s="119" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D76" s="118"/>
       <c r="E76" s="123"/>
@@ -11122,11 +11059,11 @@
       <c r="BC76" s="24"/>
     </row>
     <row r="77" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A77" s="138"/>
-      <c r="B77" s="138"/>
+      <c r="A77" s="152"/>
+      <c r="B77" s="152"/>
       <c r="C77" s="54"/>
       <c r="D77" s="54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E77" s="55" t="s">
         <v>87</v>
@@ -11192,11 +11129,11 @@
       <c r="BC77" s="24"/>
     </row>
     <row r="78" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A78" s="138"/>
-      <c r="B78" s="138"/>
+      <c r="A78" s="152"/>
+      <c r="B78" s="152"/>
       <c r="C78" s="54"/>
       <c r="D78" s="54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E78" s="55" t="s">
         <v>87</v>
@@ -11262,10 +11199,10 @@
       <c r="BC78" s="24"/>
     </row>
     <row r="79" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A79" s="136" t="s">
-        <v>195</v>
-      </c>
-      <c r="B79" s="137">
+      <c r="A79" s="153" t="s">
+        <v>194</v>
+      </c>
+      <c r="B79" s="154">
         <v>4.5999999999999996</v>
       </c>
       <c r="C79" s="119" t="s">
@@ -11325,8 +11262,8 @@
       <c r="BC79" s="24"/>
     </row>
     <row r="80" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A80" s="136"/>
-      <c r="B80" s="137"/>
+      <c r="A80" s="153"/>
+      <c r="B80" s="154"/>
       <c r="C80" s="55"/>
       <c r="D80" s="54" t="s">
         <v>62</v>
@@ -11465,11 +11402,11 @@
       <c r="BC81" s="24"/>
     </row>
     <row r="82" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A82" s="136"/>
-      <c r="B82" s="137"/>
+      <c r="A82" s="153"/>
+      <c r="B82" s="154"/>
       <c r="C82" s="55"/>
-      <c r="D82" s="171" t="s">
-        <v>207</v>
+      <c r="D82" s="136" t="s">
+        <v>206</v>
       </c>
       <c r="E82" s="79" t="s">
         <v>87</v>
@@ -11535,11 +11472,11 @@
       <c r="BC82" s="24"/>
     </row>
     <row r="83" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A83" s="138"/>
-      <c r="B83" s="138"/>
+      <c r="A83" s="152"/>
+      <c r="B83" s="152"/>
       <c r="C83" s="55"/>
       <c r="D83" s="54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E83" s="79" t="s">
         <v>87</v>
@@ -11605,11 +11542,11 @@
       <c r="BC83" s="24"/>
     </row>
     <row r="84" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A84" s="136"/>
-      <c r="B84" s="137"/>
+      <c r="A84" s="153"/>
+      <c r="B84" s="154"/>
       <c r="C84" s="55"/>
       <c r="D84" s="54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E84" s="79" t="s">
         <v>87</v>
@@ -11675,11 +11612,11 @@
       <c r="BC84" s="24"/>
     </row>
     <row r="85" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A85" s="136"/>
-      <c r="B85" s="137"/>
+      <c r="A85" s="153"/>
+      <c r="B85" s="154"/>
       <c r="C85" s="55"/>
       <c r="D85" s="54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E85" s="79" t="s">
         <v>87</v>
@@ -11745,11 +11682,11 @@
       <c r="BC85" s="24"/>
     </row>
     <row r="86" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A86" s="136"/>
-      <c r="B86" s="137"/>
+      <c r="A86" s="153"/>
+      <c r="B86" s="154"/>
       <c r="C86" s="55"/>
       <c r="D86" s="133" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E86" s="79" t="s">
         <v>87</v>
@@ -11815,11 +11752,11 @@
       <c r="BC86" s="24"/>
     </row>
     <row r="87" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A87" s="138"/>
-      <c r="B87" s="138"/>
+      <c r="A87" s="152"/>
+      <c r="B87" s="152"/>
       <c r="C87" s="55"/>
       <c r="D87" s="54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E87" s="79" t="s">
         <v>87</v>
@@ -11885,11 +11822,11 @@
       <c r="BC87" s="24"/>
     </row>
     <row r="88" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A88" s="138"/>
-      <c r="B88" s="138"/>
+      <c r="A88" s="152"/>
+      <c r="B88" s="152"/>
       <c r="C88" s="55"/>
       <c r="D88" s="54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E88" s="79" t="s">
         <v>87</v>
@@ -11955,14 +11892,14 @@
       <c r="BC88" s="24"/>
     </row>
     <row r="89" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A89" s="139" t="s">
-        <v>196</v>
-      </c>
-      <c r="B89" s="140">
+      <c r="A89" s="150" t="s">
+        <v>195</v>
+      </c>
+      <c r="B89" s="151">
         <v>4.7</v>
       </c>
       <c r="C89" s="118" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D89" s="118"/>
       <c r="E89" s="123"/>
@@ -12018,8 +11955,8 @@
       <c r="BC89" s="24"/>
     </row>
     <row r="90" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A90" s="138"/>
-      <c r="B90" s="138"/>
+      <c r="A90" s="152"/>
+      <c r="B90" s="152"/>
       <c r="C90" s="54"/>
       <c r="D90" s="54" t="s">
         <v>64</v>
@@ -12088,14 +12025,14 @@
       <c r="BC90" s="24"/>
     </row>
     <row r="91" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A91" s="139" t="s">
-        <v>197</v>
-      </c>
-      <c r="B91" s="140">
+      <c r="A91" s="150" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" s="151">
         <v>4.8</v>
       </c>
       <c r="C91" s="118" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D91" s="118"/>
       <c r="E91" s="119"/>
@@ -12151,14 +12088,14 @@
       <c r="BC91" s="24"/>
     </row>
     <row r="92" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A92" s="138"/>
-      <c r="B92" s="138"/>
+      <c r="A92" s="152"/>
+      <c r="B92" s="152"/>
       <c r="C92" s="54"/>
       <c r="D92" s="54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E92" s="55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F92" s="56">
         <v>45590</v>
@@ -12221,14 +12158,14 @@
       <c r="BC92" s="24"/>
     </row>
     <row r="93" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A93" s="138"/>
-      <c r="B93" s="138"/>
+      <c r="A93" s="152"/>
+      <c r="B93" s="152"/>
       <c r="C93" s="54"/>
       <c r="D93" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E93" s="55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F93" s="56">
         <v>45590</v>
@@ -12291,14 +12228,14 @@
       <c r="BC93" s="24"/>
     </row>
     <row r="94" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A94" s="138"/>
-      <c r="B94" s="138"/>
+      <c r="A94" s="152"/>
+      <c r="B94" s="152"/>
       <c r="C94" s="54"/>
       <c r="D94" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E94" s="55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F94" s="56">
         <v>45590</v>
@@ -12361,14 +12298,14 @@
       <c r="BC94" s="24"/>
     </row>
     <row r="95" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A95" s="138"/>
-      <c r="B95" s="138"/>
+      <c r="A95" s="152"/>
+      <c r="B95" s="152"/>
       <c r="C95" s="54"/>
       <c r="D95" s="54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E95" s="55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F95" s="56">
         <v>45590</v>
@@ -12431,14 +12368,14 @@
       <c r="BC95" s="24"/>
     </row>
     <row r="96" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A96" s="138"/>
-      <c r="B96" s="138"/>
+      <c r="A96" s="152"/>
+      <c r="B96" s="152"/>
       <c r="C96" s="54"/>
       <c r="D96" s="54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E96" s="55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F96" s="56">
         <v>45590</v>
@@ -12501,14 +12438,14 @@
       <c r="BC96" s="24"/>
     </row>
     <row r="97" spans="1:55" s="30" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A97" s="139" t="s">
-        <v>198</v>
-      </c>
-      <c r="B97" s="140">
+      <c r="A97" s="150" t="s">
+        <v>197</v>
+      </c>
+      <c r="B97" s="151">
         <v>4.9000000000000004</v>
       </c>
       <c r="C97" s="118" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D97" s="118"/>
       <c r="E97" s="123"/>
@@ -12564,11 +12501,11 @@
       <c r="BC97" s="24"/>
     </row>
     <row r="98" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A98" s="138"/>
-      <c r="B98" s="138"/>
+      <c r="A98" s="152"/>
+      <c r="B98" s="152"/>
       <c r="C98" s="54"/>
       <c r="D98" s="54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E98" s="79" t="s">
         <v>90</v>
@@ -12634,8 +12571,8 @@
       <c r="BC98" s="24"/>
     </row>
     <row r="99" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A99" s="138"/>
-      <c r="B99" s="138"/>
+      <c r="A99" s="152"/>
+      <c r="B99" s="152"/>
       <c r="C99" s="54"/>
       <c r="D99" s="55" t="s">
         <v>91</v>
@@ -12704,8 +12641,8 @@
       <c r="BC99" s="24"/>
     </row>
     <row r="100" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A100" s="138"/>
-      <c r="B100" s="138"/>
+      <c r="A100" s="152"/>
+      <c r="B100" s="152"/>
       <c r="C100" s="54"/>
       <c r="D100" s="55" t="s">
         <v>92</v>
@@ -12774,8 +12711,8 @@
       <c r="BC100" s="24"/>
     </row>
     <row r="101" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A101" s="138"/>
-      <c r="B101" s="138"/>
+      <c r="A101" s="152"/>
+      <c r="B101" s="152"/>
       <c r="C101" s="54"/>
       <c r="D101" s="55" t="s">
         <v>93</v>
@@ -12844,11 +12781,11 @@
       <c r="BC101" s="24"/>
     </row>
     <row r="102" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A102" s="138"/>
-      <c r="B102" s="138"/>
+      <c r="A102" s="152"/>
+      <c r="B102" s="152"/>
       <c r="C102" s="54"/>
       <c r="D102" s="54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E102" s="79" t="s">
         <v>90</v>
@@ -12914,11 +12851,11 @@
       <c r="BC102" s="24"/>
     </row>
     <row r="103" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A103" s="138"/>
-      <c r="B103" s="138"/>
+      <c r="A103" s="152"/>
+      <c r="B103" s="152"/>
       <c r="C103" s="54"/>
       <c r="D103" s="54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E103" s="79" t="s">
         <v>90</v>
@@ -12984,8 +12921,8 @@
       <c r="BC103" s="24"/>
     </row>
     <row r="104" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A104" s="138"/>
-      <c r="B104" s="138"/>
+      <c r="A104" s="152"/>
+      <c r="B104" s="152"/>
       <c r="C104" s="54"/>
       <c r="D104" s="55" t="s">
         <v>94</v>
@@ -13054,11 +12991,11 @@
       <c r="BC104" s="24"/>
     </row>
     <row r="105" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A105" s="138"/>
-      <c r="B105" s="138"/>
+      <c r="A105" s="152"/>
+      <c r="B105" s="152"/>
       <c r="C105" s="54"/>
       <c r="D105" s="54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E105" s="79" t="s">
         <v>90</v>
@@ -13124,8 +13061,8 @@
       <c r="BC105" s="24"/>
     </row>
     <row r="106" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A106" s="138"/>
-      <c r="B106" s="138"/>
+      <c r="A106" s="152"/>
+      <c r="B106" s="152"/>
       <c r="C106" s="54"/>
       <c r="D106" s="55" t="s">
         <v>36</v>
@@ -13194,14 +13131,14 @@
       <c r="BC106" s="24"/>
     </row>
     <row r="107" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A107" s="139" t="s">
-        <v>199</v>
-      </c>
-      <c r="B107" s="140">
+      <c r="A107" s="150" t="s">
+        <v>198</v>
+      </c>
+      <c r="B107" s="151">
         <v>4.0999999999999996</v>
       </c>
       <c r="C107" s="118" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D107" s="118"/>
       <c r="E107" s="123"/>
@@ -13257,11 +13194,11 @@
       <c r="BC107" s="24"/>
     </row>
     <row r="108" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A108" s="138"/>
-      <c r="B108" s="138"/>
+      <c r="A108" s="152"/>
+      <c r="B108" s="152"/>
       <c r="C108" s="54"/>
       <c r="D108" s="54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E108" s="55" t="s">
         <v>95</v>
@@ -13327,8 +13264,8 @@
       <c r="BC108" s="24"/>
     </row>
     <row r="109" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A109" s="138"/>
-      <c r="B109" s="138"/>
+      <c r="A109" s="152"/>
+      <c r="B109" s="152"/>
       <c r="C109" s="54"/>
       <c r="D109" s="54" t="s">
         <v>37</v>
@@ -13397,8 +13334,8 @@
       <c r="BC109" s="24"/>
     </row>
     <row r="110" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A110" s="138"/>
-      <c r="B110" s="138"/>
+      <c r="A110" s="152"/>
+      <c r="B110" s="152"/>
       <c r="C110" s="54"/>
       <c r="D110" s="54" t="s">
         <v>38</v>
@@ -13467,8 +13404,8 @@
       <c r="BC110" s="24"/>
     </row>
     <row r="111" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A111" s="138"/>
-      <c r="B111" s="138"/>
+      <c r="A111" s="152"/>
+      <c r="B111" s="152"/>
       <c r="C111" s="54"/>
       <c r="D111" s="54" t="s">
         <v>39</v>
@@ -13537,8 +13474,8 @@
       <c r="BC111" s="24"/>
     </row>
     <row r="112" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A112" s="138"/>
-      <c r="B112" s="138"/>
+      <c r="A112" s="152"/>
+      <c r="B112" s="152"/>
       <c r="C112" s="54"/>
       <c r="D112" s="54" t="s">
         <v>40</v>
@@ -13607,8 +13544,8 @@
       <c r="BC112" s="24"/>
     </row>
     <row r="113" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A113" s="138"/>
-      <c r="B113" s="138"/>
+      <c r="A113" s="152"/>
+      <c r="B113" s="152"/>
       <c r="C113" s="54"/>
       <c r="D113" s="54" t="s">
         <v>41</v>
@@ -13677,10 +13614,10 @@
       <c r="BC113" s="24"/>
     </row>
     <row r="114" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A114" s="136" t="s">
-        <v>200</v>
-      </c>
-      <c r="B114" s="137">
+      <c r="A114" s="153" t="s">
+        <v>199</v>
+      </c>
+      <c r="B114" s="154">
         <v>4.17</v>
       </c>
       <c r="C114" s="119" t="s">
@@ -13740,11 +13677,11 @@
       <c r="BC114" s="24"/>
     </row>
     <row r="115" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A115" s="136"/>
-      <c r="B115" s="137"/>
+      <c r="A115" s="153"/>
+      <c r="B115" s="154"/>
       <c r="C115" s="55"/>
       <c r="D115" s="54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E115" s="79" t="s">
         <v>96</v>
@@ -13810,8 +13747,8 @@
       <c r="BC115" s="24"/>
     </row>
     <row r="116" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A116" s="136"/>
-      <c r="B116" s="137"/>
+      <c r="A116" s="153"/>
+      <c r="B116" s="154"/>
       <c r="C116" s="54"/>
       <c r="D116" s="54" t="s">
         <v>42</v>
@@ -13880,10 +13817,10 @@
       <c r="BC116" s="24"/>
     </row>
     <row r="117" spans="1:55" s="30" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A117" s="136" t="s">
-        <v>202</v>
-      </c>
-      <c r="B117" s="137"/>
+      <c r="A117" s="153" t="s">
+        <v>201</v>
+      </c>
+      <c r="B117" s="154"/>
       <c r="C117" s="119" t="s">
         <v>43</v>
       </c>
@@ -13941,8 +13878,8 @@
       <c r="BC117" s="24"/>
     </row>
     <row r="118" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A118" s="136"/>
-      <c r="B118" s="137"/>
+      <c r="A118" s="153"/>
+      <c r="B118" s="154"/>
       <c r="C118" s="54"/>
       <c r="D118" s="54" t="s">
         <v>44</v>
@@ -14011,11 +13948,11 @@
       <c r="BC118" s="24"/>
     </row>
     <row r="119" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A119" s="136"/>
-      <c r="B119" s="137"/>
+      <c r="A119" s="153"/>
+      <c r="B119" s="154"/>
       <c r="C119" s="54"/>
       <c r="D119" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E119" s="79" t="s">
         <v>85</v>
@@ -14081,11 +14018,11 @@
       <c r="BC119" s="24"/>
     </row>
     <row r="120" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A120" s="136"/>
-      <c r="B120" s="137"/>
+      <c r="A120" s="153"/>
+      <c r="B120" s="154"/>
       <c r="C120" s="54"/>
       <c r="D120" s="55" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E120" s="79" t="s">
         <v>85</v>
@@ -14151,10 +14088,10 @@
       <c r="BC120" s="24"/>
     </row>
     <row r="121" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A121" s="136" t="s">
-        <v>201</v>
-      </c>
-      <c r="B121" s="137">
+      <c r="A121" s="153" t="s">
+        <v>200</v>
+      </c>
+      <c r="B121" s="154">
         <v>4.1900000000000004</v>
       </c>
       <c r="C121" s="119" t="s">
@@ -14214,11 +14151,11 @@
       <c r="BC121" s="24"/>
     </row>
     <row r="122" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A122" s="136"/>
-      <c r="B122" s="137"/>
+      <c r="A122" s="153"/>
+      <c r="B122" s="154"/>
       <c r="C122" s="55"/>
       <c r="D122" s="54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E122" s="79" t="s">
         <v>97</v>
@@ -14284,11 +14221,11 @@
       <c r="BC122" s="24"/>
     </row>
     <row r="123" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A123" s="136"/>
-      <c r="B123" s="137"/>
+      <c r="A123" s="153"/>
+      <c r="B123" s="154"/>
       <c r="C123" s="55"/>
       <c r="D123" s="54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E123" s="79" t="s">
         <v>97</v>
@@ -14354,11 +14291,11 @@
       <c r="BC123" s="24"/>
     </row>
     <row r="124" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A124" s="136"/>
-      <c r="B124" s="137"/>
+      <c r="A124" s="153"/>
+      <c r="B124" s="154"/>
       <c r="C124" s="55"/>
       <c r="D124" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E124" s="79" t="s">
         <v>97</v>
@@ -14424,11 +14361,11 @@
       <c r="BC124" s="24"/>
     </row>
     <row r="125" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A125" s="136"/>
-      <c r="B125" s="137"/>
+      <c r="A125" s="153"/>
+      <c r="B125" s="154"/>
       <c r="C125" s="55"/>
       <c r="D125" s="54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E125" s="79" t="s">
         <v>97</v>
@@ -14494,10 +14431,10 @@
       <c r="BC125" s="24"/>
     </row>
     <row r="126" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A126" s="136" t="s">
-        <v>203</v>
-      </c>
-      <c r="B126" s="137"/>
+      <c r="A126" s="153" t="s">
+        <v>202</v>
+      </c>
+      <c r="B126" s="154"/>
       <c r="C126" s="119" t="s">
         <v>46</v>
       </c>
@@ -14555,8 +14492,8 @@
       <c r="BC126" s="24"/>
     </row>
     <row r="127" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A127" s="136"/>
-      <c r="B127" s="137"/>
+      <c r="A127" s="153"/>
+      <c r="B127" s="154"/>
       <c r="C127" s="55"/>
       <c r="D127" s="55" t="s">
         <v>98</v>
@@ -14625,8 +14562,8 @@
       <c r="BC127" s="24"/>
     </row>
     <row r="128" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A128" s="136"/>
-      <c r="B128" s="137"/>
+      <c r="A128" s="153"/>
+      <c r="B128" s="154"/>
       <c r="C128" s="55"/>
       <c r="D128" s="55" t="s">
         <v>99</v>
@@ -14695,11 +14632,11 @@
       <c r="BC128" s="24"/>
     </row>
     <row r="129" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A129" s="136"/>
-      <c r="B129" s="137"/>
+      <c r="A129" s="153"/>
+      <c r="B129" s="154"/>
       <c r="C129" s="55"/>
       <c r="D129" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F129" s="56">
         <v>45591</v>
@@ -14762,11 +14699,11 @@
       <c r="BC129" s="24"/>
     </row>
     <row r="130" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A130" s="136"/>
-      <c r="B130" s="137"/>
+      <c r="A130" s="153"/>
+      <c r="B130" s="154"/>
       <c r="C130" s="55"/>
       <c r="D130" s="54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E130" s="79" t="s">
         <v>85</v>
@@ -14832,11 +14769,11 @@
       <c r="BC130" s="24"/>
     </row>
     <row r="131" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A131" s="136"/>
-      <c r="B131" s="137"/>
+      <c r="A131" s="153"/>
+      <c r="B131" s="154"/>
       <c r="C131" s="55"/>
       <c r="D131" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E131" s="79"/>
       <c r="F131" s="56">
@@ -14900,10 +14837,10 @@
       <c r="BC131" s="24"/>
     </row>
     <row r="132" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A132" s="136" t="s">
-        <v>204</v>
-      </c>
-      <c r="B132" s="137">
+      <c r="A132" s="153" t="s">
+        <v>203</v>
+      </c>
+      <c r="B132" s="154">
         <v>4.21</v>
       </c>
       <c r="C132" s="119" t="s">
@@ -14963,11 +14900,11 @@
       <c r="BC132" s="24"/>
     </row>
     <row r="133" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A133" s="136"/>
-      <c r="B133" s="137"/>
+      <c r="A133" s="153"/>
+      <c r="B133" s="154"/>
       <c r="C133" s="55"/>
       <c r="D133" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E133" s="79" t="s">
         <v>85</v>
@@ -15033,10 +14970,10 @@
       <c r="BC133" s="24"/>
     </row>
     <row r="134" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A134" s="136" t="s">
-        <v>169</v>
-      </c>
-      <c r="B134" s="137">
+      <c r="A134" s="153" t="s">
+        <v>168</v>
+      </c>
+      <c r="B134" s="154">
         <v>4.22</v>
       </c>
       <c r="C134" s="119" t="s">
@@ -15096,11 +15033,11 @@
       <c r="BC134" s="24"/>
     </row>
     <row r="135" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A135" s="136"/>
-      <c r="B135" s="137"/>
+      <c r="A135" s="153"/>
+      <c r="B135" s="154"/>
       <c r="C135" s="55"/>
       <c r="D135" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E135" s="55" t="s">
         <v>100</v>
@@ -15166,10 +15103,10 @@
       <c r="BC135" s="24"/>
     </row>
     <row r="136" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A136" s="136" t="s">
-        <v>170</v>
-      </c>
-      <c r="B136" s="137">
+      <c r="A136" s="153" t="s">
+        <v>169</v>
+      </c>
+      <c r="B136" s="154">
         <v>4.2300000000000004</v>
       </c>
       <c r="C136" s="119" t="s">
@@ -15229,11 +15166,11 @@
       <c r="BC136" s="24"/>
     </row>
     <row r="137" spans="1:55" s="33" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A137" s="136"/>
-      <c r="B137" s="137"/>
+      <c r="A137" s="153"/>
+      <c r="B137" s="154"/>
       <c r="C137" s="55"/>
       <c r="D137" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E137" s="79" t="s">
         <v>88</v>
@@ -15299,10 +15236,10 @@
       <c r="BC137" s="24"/>
     </row>
     <row r="138" spans="1:55" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A138" s="136" t="s">
-        <v>171</v>
-      </c>
-      <c r="B138" s="137">
+      <c r="A138" s="153" t="s">
+        <v>170</v>
+      </c>
+      <c r="B138" s="154">
         <v>4.24</v>
       </c>
       <c r="C138" s="119" t="s">
@@ -15362,11 +15299,11 @@
       <c r="BC138" s="24"/>
     </row>
     <row r="139" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A139" s="136"/>
-      <c r="B139" s="137"/>
+      <c r="A139" s="153"/>
+      <c r="B139" s="154"/>
       <c r="C139" s="55"/>
       <c r="D139" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E139" s="55" t="s">
         <v>85</v>
@@ -15432,11 +15369,11 @@
       <c r="BC139" s="24"/>
     </row>
     <row r="140" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A140" s="136"/>
-      <c r="B140" s="137"/>
+      <c r="A140" s="153"/>
+      <c r="B140" s="154"/>
       <c r="C140" s="55"/>
       <c r="D140" s="54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E140" s="55" t="s">
         <v>85</v>
@@ -15502,11 +15439,11 @@
       <c r="BC140" s="24"/>
     </row>
     <row r="141" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A141" s="136"/>
-      <c r="B141" s="137"/>
+      <c r="A141" s="153"/>
+      <c r="B141" s="154"/>
       <c r="C141" s="55"/>
       <c r="D141" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E141" s="55" t="s">
         <v>85</v>
@@ -15572,11 +15509,11 @@
       <c r="BC141" s="24"/>
     </row>
     <row r="142" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A142" s="136"/>
-      <c r="B142" s="137"/>
+      <c r="A142" s="153"/>
+      <c r="B142" s="154"/>
       <c r="C142" s="55"/>
       <c r="D142" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E142" s="55" t="s">
         <v>85</v>
@@ -15642,10 +15579,10 @@
       <c r="BC142" s="24"/>
     </row>
     <row r="143" spans="1:55" s="31" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A143" s="136" t="s">
-        <v>172</v>
-      </c>
-      <c r="B143" s="137">
+      <c r="A143" s="153" t="s">
+        <v>171</v>
+      </c>
+      <c r="B143" s="154">
         <v>4.25</v>
       </c>
       <c r="C143" s="119" t="s">
@@ -15705,11 +15642,11 @@
       <c r="BC143" s="24"/>
     </row>
     <row r="144" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A144" s="136"/>
-      <c r="B144" s="137"/>
+      <c r="A144" s="153"/>
+      <c r="B144" s="154"/>
       <c r="C144" s="55"/>
       <c r="D144" s="54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E144" s="79" t="s">
         <v>101</v>
@@ -15775,11 +15712,11 @@
       <c r="BC144" s="24"/>
     </row>
     <row r="145" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A145" s="136"/>
-      <c r="B145" s="137"/>
+      <c r="A145" s="153"/>
+      <c r="B145" s="154"/>
       <c r="C145" s="55"/>
       <c r="D145" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E145" s="79" t="s">
         <v>101</v>
@@ -15845,11 +15782,11 @@
       <c r="BC145" s="24"/>
     </row>
     <row r="146" spans="1:55" s="32" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A146" s="136"/>
-      <c r="B146" s="137"/>
+      <c r="A146" s="153"/>
+      <c r="B146" s="154"/>
       <c r="C146" s="55"/>
       <c r="D146" s="54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E146" s="79" t="s">
         <v>101</v>
@@ -15915,8 +15852,8 @@
       <c r="BC146" s="24"/>
     </row>
     <row r="147" spans="1:55" s="29" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A147" s="136"/>
-      <c r="B147" s="137">
+      <c r="A147" s="153"/>
+      <c r="B147" s="154">
         <v>4.26</v>
       </c>
       <c r="C147" s="55" t="s">
@@ -15981,10 +15918,10 @@
       <c r="BC147" s="24"/>
     </row>
     <row r="148" spans="1:55" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A148" s="136" t="s">
-        <v>173</v>
-      </c>
-      <c r="B148" s="137">
+      <c r="A148" s="153" t="s">
+        <v>172</v>
+      </c>
+      <c r="B148" s="154">
         <v>5</v>
       </c>
       <c r="C148" s="34" t="s">
@@ -16044,10 +15981,10 @@
       <c r="BC148" s="39"/>
     </row>
     <row r="149" spans="1:55" s="29" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A149" s="136" t="s">
-        <v>174</v>
-      </c>
-      <c r="B149" s="137">
+      <c r="A149" s="153" t="s">
+        <v>173</v>
+      </c>
+      <c r="B149" s="154">
         <v>5.0999999999999996</v>
       </c>
       <c r="C149" s="55" t="s">
@@ -16117,6 +16054,143 @@
     </row>
   </sheetData>
   <mergeCells count="161">
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="AI8:AM9"/>
+    <mergeCell ref="AN8:AR9"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:AB5"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="Q4:AC4"/>
+    <mergeCell ref="P2:AH2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AX8:BB9"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="AS8:AW9"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:N9"/>
+    <mergeCell ref="O8:S9"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="T8:X9"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="AD8:AH9"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A65:B65"/>
@@ -16141,143 +16215,6 @@
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
-    <mergeCell ref="AX8:BB9"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="AS8:AW9"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:N9"/>
-    <mergeCell ref="O8:S9"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="T8:X9"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="AD8:AH9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="AI8:AM9"/>
-    <mergeCell ref="AN8:AR9"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="Q5:AB5"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="Q4:AC4"/>
-    <mergeCell ref="P2:AH2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="I1:I24 I143 I117 I121 I33:I45 I107 I97 I91 I89 I79 I70 I50 I126 I148 I150:I1048576">
@@ -16310,7 +16247,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I129 I131">
+  <conditionalFormatting sqref="I131 I129">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="percent" val="0"/>
